--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -223,29 +223,28 @@
     <t>CareerGoal</t>
   </si>
   <si>
-    <t>Clayton</t>
+    <t>Beebee</t>
   </si>
   <si>
     <t>1666-01-01</t>
   </si>
   <si>
-    <t>clayton.jpg</t>
-  </si>
-  <si>
-    <t>Gimmick: "The Virtual Avenger"</t>
-  </si>
-  <si>
-    <t>Wrestling Gimmick: "The Virtua</t>
+    <t>beebee.jpg</t>
+  </si>
+  <si>
+    <t>Wrestling Gimmick: "The Sultan</t>
+  </si>
+  <si>
+    <t>Wrestling Gimmick: The Siniste</t>
   </si>
   <si>
     <t>Bio</t>
   </si>
   <si>
-    <t>Clayton, also known as "The AI Enthusiast," is a male professional wrestler whose passion for artificial intelligence in wrestling video games is unmatched. Born and raised in a small town, Clayton discovered his love for both wrestling and technology at a young age. 
-Throughout his career, Clayton has incorporated his fascination with AI into his wrestling style, earning him the nickname "The AI Enthusiast". His moves are precise and calculated, utilizing the latest advancements in technology to outsmart and outmaneuver his opponents. 
-Clayton's dedication to his craft is evident in every match he competes in, as he constantly evolves and adapts his strategies to stay ahead of the competition. His unique blend of athleticism and technical prowess has made him a fan favorite in the wrestling world.
-Off the mat, Clayton is known for his love of gaming and technology, often spending hours perfecting his skills in wrestling video games. He credits his success in the ring to his ability to analyze and predict his opponents' moves, much like a computer algorithm.
-With a bright future ahead of him, Clayton continues to push the boundaries of what is possible in the world of professional wrestling. Fans can't wait to see what innovative techniques he will bring to the ring next.</t>
+    <t>Beebee, hailing from the Middle East, is a professional wrestler who has been captivating audiences around the world with his unique style and charisma. With his mysterious aura and enigmatic presence, Beebee brings a sense of intrigue to the wrestling ring like no other.
+Known for his Interpret style of wrestling, Beebee incorporates elements of storytelling and emotion into his matches, creating a truly captivating experience for fans. Whether he is portraying a hero fighting against insurmountable odds or a villain seeking to undermine his opponents, Beebee always leaves a lasting impression with his performances.
+Despite his enigmatic persona, Beebee is a fierce competitor in the ring, utilizing his agility, strength, and technical prowess to outsmart and outmaneuver his opponents. With a reputation for delivering show-stopping matches and electrifying moments, Beebee has quickly risen through the ranks of professional wrestling and established himself as a force to be reckoned with.
+Off the mat, Beebee is a dedicated athlete and performer who is constantly honing his craft and pushing the boundaries of what is possible in the world of professional wrestling. With his unwavering dedication to his art and his undeniable talent, Beebee is sure to continue making waves in the wrestling world for years to come.</t>
   </si>
   <si>
     <t>WorkerUID</t>
@@ -1145,7 +1144,7 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2">
-        <v>2920</v>
+        <v>2939</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1178,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>28335</v>
+        <v>24401</v>
       </c>
       <c r="M2" s="2">
-        <v>45630.65420527843</v>
+        <v>34560</v>
       </c>
       <c r="N2" t="s">
         <v>69</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="R2">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="S2">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="T2" t="s">
         <v>70</v>
@@ -1208,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1229,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1372,7 +1371,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2920</v>
+        <v>2939</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -1521,46 +1520,46 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2">
-        <v>2920</v>
+        <v>2939</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I2">
         <v>79</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K2">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="L2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="M2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="N2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -1569,31 +1568,31 @@
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R2">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="S2">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="T2">
+        <v>76</v>
+      </c>
+      <c r="U2">
+        <v>53</v>
+      </c>
+      <c r="V2">
         <v>48</v>
       </c>
-      <c r="U2">
-        <v>78</v>
-      </c>
-      <c r="V2">
-        <v>66</v>
-      </c>
       <c r="W2">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="X2">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="Y2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1907,13 +1906,13 @@
     </row>
     <row r="2" spans="1:81">
       <c r="A2">
-        <v>1</v>
+        <v>2628</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>2920</v>
+        <v>2939</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
@@ -1928,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1985,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="AA2" s="2">
-        <v>43335</v>
+        <v>41557</v>
       </c>
       <c r="AB2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2012,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -2051,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="AX2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY2">
         <v>0</v>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="205">
   <si>
     <t>UID</t>
   </si>
@@ -224,32 +224,73 @@
     <t>CareerGoal</t>
   </si>
   <si>
-    <t>Bro Man</t>
-  </si>
-  <si>
-    <t>Bro</t>
+    <t>bro brah</t>
+  </si>
+  <si>
+    <t>testtest</t>
+  </si>
+  <si>
+    <t>testtest1</t>
+  </si>
+  <si>
+    <t>bro</t>
   </si>
   <si>
     <t>1666-01-01</t>
   </si>
   <si>
-    <t>broman.jpg</t>
-  </si>
-  <si>
-    <t>Gimmick: Bro Man is a charisma</t>
-  </si>
-  <si>
-    <t>Gimmick: Bro Man is a cocky an</t>
+    <t>brobrah.jpg</t>
+  </si>
+  <si>
+    <t>testtest.jpg</t>
+  </si>
+  <si>
+    <t>testtest1.jpg</t>
+  </si>
+  <si>
+    <t>Gimmick: Bro Brah is the ultim</t>
+  </si>
+  <si>
+    <t>Gimmick: The Techno Titan
+Tes</t>
+  </si>
+  <si>
+    <t>Gimmick: The Tech Guru
+Testte</t>
+  </si>
+  <si>
+    <t>Bro Brah is a cocky and arroga</t>
+  </si>
+  <si>
+    <t>Wrestling Gimmick: "The Mad Sc</t>
+  </si>
+  <si>
+    <t>Gimmick: The Internet Troll
+"</t>
   </si>
   <si>
     <t>Bio</t>
   </si>
   <si>
-    <t>Bro Man, born and raised in the heart of America, is a professional wrestler known for his dynamic and innovative wrestling style. His unique approach to wrestling has made him a standout in the industry, captivating audiences with his charisma and athleticism.
-Growing up, Bro Man was always drawn to the world of wrestling. He trained tirelessly, honing his skills and perfecting his craft. His dedication and passion for the sport propelled him to success in the ring, where he quickly gained a reputation for his unorthodox moves and high-flying maneuvers.
-Bro Man's wrestling style is best described as Interpret, as he incorporates elements of various wrestling disciplines into his performances. From technical precision to high-flying acrobatics, Bro Man keeps his opponents guessing with his unpredictable and exciting approach to the sport.
-Outside of the ring, Bro Man is known for his larger-than-life personality and his dedication to his fans. He is always willing to go the extra mile to entertain and inspire, both inside and outside of the squared circle.
-With a bright future ahead of him, Bro Man continues to push the boundaries of what is possible in professional wrestling. His unique blend of athleticism, creativity, and showmanship make him a force to be reckoned with in the world of sports entertainment.</t>
+    <t>Bro Brah, born in California, USA, is a professional wrestler known for his unique and captivating wrestling style that can only be described as Interpret. With a background in various martial arts disciplines, Bro Brah has mastered the art of combining agility, strength, and showmanship in the ring.
+Growing up, Bro Brah was always drawn to the world of professional wrestling. He idolized legendary wrestlers and spent countless hours perfecting his craft in the gym and in the ring. With his charismatic personality and natural athletic ability, Bro Brah quickly rose through the ranks of the wrestling world, captivating audiences with his high-flying maneuvers and innovative wrestling techniques.
+Bro Brah's career reached new heights when he signed with a major wrestling promotion, where he quickly became a fan favorite for his electrifying performances and unmatched charisma. His in-ring presence and ability to connect with the audience have made him a force to be reckoned with in the world of professional wrestling.
+Outside of the ring, Bro Brah is known for his philanthropic efforts and dedication to giving back to his community. He regularly volunteers at local charities and youth organizations, using his platform to inspire others to chase their dreams and never give up.
+With his unique wrestling style and larger-than-life personality, Bro Brah continues to make waves in the wrestling world, solidifying his place as one of the most dynamic and exciting wrestlers in the industry. As he continues to push the boundaries of what is possible in the ring, there is no doubt that Bro Brah's legacy will be remembered for years to come.</t>
+  </si>
+  <si>
+    <t>Testtest, born as John Smith, is a professional wrestler known for his unique and unpredictable wrestling style in the ring. Hailing from parts unknown, Testtest quickly made a name for himself in the world of professional wrestling with his innovative moves and unorthodox techniques.
+Standing at 6'5" and weighing in at 250 pounds, Testtest is an imposing figure in the squared circle. With his imposing physique and menacing presence, he strikes fear into the hearts of his opponents. His wrestling style is best described as Interpret, as he adapts to his opponents and their moves, always staying one step ahead.
+Testtest has competed in various promotions around the world, leaving a trail of destruction in his wake. He has held numerous championships and accolades throughout his career, solidifying his status as one of the top talents in the industry.
+Outside of the ring, Testtest is known for his charitable work and dedication to giving back to the community. He regularly participates in charity events and fundraisers, using his platform to make a positive impact on the world around him.
+With his combination of raw power, technical prowess, and unmatched charisma, Testtest continues to captivate audiences and dominate his competition in the world of professional wrestling. He is a force to be reckoned with, and his legacy in the industry is sure to stand the test of time.</t>
+  </si>
+  <si>
+    <t>Testtest1, born and raised in the heart of professional wrestling, discovered his passion for the sport at a young age. From the moment he stepped foot into the squared circle, it was evident that he was destined for greatness.
+Testtest1 quickly made a name for himself with his unique and innovative wrestling style, which he aptly named Interpret. Drawing inspiration from various styles and techniques, he created a dynamic and unpredictable in-ring presence that kept audiences on the edge of their seats.
+Throughout his career, Testtest1 has faced some of the toughest competitors in the wrestling world, always pushing himself to the limit and never backing down from a challenge. His dedication and drive have earned him numerous championships and accolades, solidifying his place as one of the top performers in the industry.
+Off the mat, Testtest1 is known for his charisma and larger-than-life personality, drawing fans in with his infectious energy and passion for the sport. He is a true showman, always delivering electrifying performances that leave a lasting impact on everyone who watches him.
+As Testtest1 continues to dazzle audiences around the world with his dynamic in-ring skills and captivating persona, there's no doubt that he will go down in history as one of the greatest professional wrestlers of all time.</t>
   </si>
   <si>
     <t>WorkerUID</t>
@@ -576,6 +617,9 @@
     <t>PlasterCaster_Bool25</t>
   </si>
   <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -592,6 +636,9 @@
   </si>
   <si>
     <t>American wrestler</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>Male</t>
@@ -962,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1176,7 +1223,7 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1191,7 +1238,7 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1209,31 +1256,31 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>28481</v>
+        <v>26781</v>
       </c>
       <c r="M2" s="2">
-        <v>39123</v>
+        <v>35507</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="Q2">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="R2">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="S2">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -1260,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1365,18 +1412,430 @@
         <v>-1</v>
       </c>
       <c r="BL2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3">
+        <v>2951</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>26701</v>
+      </c>
+      <c r="M3" s="2">
+        <v>40849</v>
+      </c>
+      <c r="N3" t="s">
         <v>72</v>
       </c>
-      <c r="BM2">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO2">
-        <v>1</v>
-      </c>
-      <c r="BP2">
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>38</v>
+      </c>
+      <c r="Q3">
+        <v>321</v>
+      </c>
+      <c r="R3">
+        <v>301</v>
+      </c>
+      <c r="S3">
+        <v>359</v>
+      </c>
+      <c r="T3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>15</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-1</v>
+      </c>
+      <c r="AH3">
+        <v>-1</v>
+      </c>
+      <c r="AI3">
+        <v>-1</v>
+      </c>
+      <c r="AJ3">
+        <v>-1</v>
+      </c>
+      <c r="AK3">
+        <v>-1</v>
+      </c>
+      <c r="AL3">
+        <v>-1</v>
+      </c>
+      <c r="AM3">
+        <v>-1</v>
+      </c>
+      <c r="AN3">
+        <v>-1</v>
+      </c>
+      <c r="AO3">
+        <v>4</v>
+      </c>
+      <c r="AP3">
+        <v>4</v>
+      </c>
+      <c r="AQ3">
+        <v>4</v>
+      </c>
+      <c r="AR3">
+        <v>4</v>
+      </c>
+      <c r="AS3">
+        <v>4</v>
+      </c>
+      <c r="AT3">
+        <v>4</v>
+      </c>
+      <c r="AU3">
+        <v>4</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>-1</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>-1</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4">
+        <v>2952</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>15816</v>
+      </c>
+      <c r="M4" s="2">
+        <v>29264</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>34</v>
+      </c>
+      <c r="Q4">
+        <v>270</v>
+      </c>
+      <c r="R4">
+        <v>250</v>
+      </c>
+      <c r="S4">
+        <v>297</v>
+      </c>
+      <c r="T4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>7</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-1</v>
+      </c>
+      <c r="AH4">
+        <v>-1</v>
+      </c>
+      <c r="AI4">
+        <v>-1</v>
+      </c>
+      <c r="AJ4">
+        <v>-1</v>
+      </c>
+      <c r="AK4">
+        <v>-1</v>
+      </c>
+      <c r="AL4">
+        <v>-1</v>
+      </c>
+      <c r="AM4">
+        <v>-1</v>
+      </c>
+      <c r="AN4">
+        <v>-1</v>
+      </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>4</v>
+      </c>
+      <c r="AQ4">
+        <v>4</v>
+      </c>
+      <c r="AR4">
+        <v>4</v>
+      </c>
+      <c r="AS4">
+        <v>4</v>
+      </c>
+      <c r="AT4">
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <v>4</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>-1</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>-1</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
         <v>0</v>
       </c>
     </row>
@@ -1387,7 +1846,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1398,15 +1857,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2951</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2952</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1891,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1424,174 +1899,174 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C2">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>86</v>
+      </c>
+      <c r="I2">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>73</v>
+      </c>
+      <c r="L2">
+        <v>46</v>
+      </c>
+      <c r="M2">
+        <v>64</v>
+      </c>
+      <c r="N2">
         <v>40</v>
-      </c>
-      <c r="D2">
-        <v>77</v>
-      </c>
-      <c r="E2">
-        <v>82</v>
-      </c>
-      <c r="F2">
-        <v>85</v>
-      </c>
-      <c r="G2">
-        <v>36</v>
-      </c>
-      <c r="H2">
-        <v>26</v>
-      </c>
-      <c r="I2">
-        <v>77</v>
-      </c>
-      <c r="J2">
-        <v>88</v>
-      </c>
-      <c r="K2">
-        <v>39</v>
-      </c>
-      <c r="L2">
-        <v>32</v>
-      </c>
-      <c r="M2">
-        <v>74</v>
-      </c>
-      <c r="N2">
-        <v>85</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -1600,31 +2075,31 @@
         <v>100</v>
       </c>
       <c r="Q2">
+        <v>75</v>
+      </c>
+      <c r="R2">
+        <v>44</v>
+      </c>
+      <c r="S2">
+        <v>61</v>
+      </c>
+      <c r="T2">
+        <v>89</v>
+      </c>
+      <c r="U2">
         <v>25</v>
       </c>
-      <c r="R2">
-        <v>27</v>
-      </c>
-      <c r="S2">
-        <v>66</v>
-      </c>
-      <c r="T2">
-        <v>26</v>
-      </c>
-      <c r="U2">
+      <c r="V2">
+        <v>80</v>
+      </c>
+      <c r="W2">
+        <v>79</v>
+      </c>
+      <c r="X2">
         <v>33</v>
       </c>
-      <c r="V2">
-        <v>30</v>
-      </c>
-      <c r="W2">
-        <v>51</v>
-      </c>
-      <c r="X2">
-        <v>68</v>
-      </c>
       <c r="Y2">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1675,6 +2150,262 @@
         <v>6</v>
       </c>
       <c r="AP2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3">
+        <v>2951</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>47</v>
+      </c>
+      <c r="J3">
+        <v>87</v>
+      </c>
+      <c r="K3">
+        <v>42</v>
+      </c>
+      <c r="L3">
+        <v>84</v>
+      </c>
+      <c r="M3">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>37</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>74</v>
+      </c>
+      <c r="R3">
+        <v>79</v>
+      </c>
+      <c r="S3">
+        <v>56</v>
+      </c>
+      <c r="T3">
+        <v>65</v>
+      </c>
+      <c r="U3">
+        <v>90</v>
+      </c>
+      <c r="V3">
+        <v>44</v>
+      </c>
+      <c r="W3">
+        <v>75</v>
+      </c>
+      <c r="X3">
+        <v>41</v>
+      </c>
+      <c r="Y3">
+        <v>77</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>100</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>6</v>
+      </c>
+      <c r="AM3">
+        <v>6</v>
+      </c>
+      <c r="AN3">
+        <v>6</v>
+      </c>
+      <c r="AO3">
+        <v>6</v>
+      </c>
+      <c r="AP3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4">
+        <v>2952</v>
+      </c>
+      <c r="B4">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>78</v>
+      </c>
+      <c r="M4">
+        <v>58</v>
+      </c>
+      <c r="N4">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>34</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>43</v>
+      </c>
+      <c r="T4">
+        <v>52</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>26</v>
+      </c>
+      <c r="W4">
+        <v>54</v>
+      </c>
+      <c r="X4">
+        <v>29</v>
+      </c>
+      <c r="Y4">
+        <v>33</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>100</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>6</v>
+      </c>
+      <c r="AM4">
+        <v>6</v>
+      </c>
+      <c r="AN4">
+        <v>6</v>
+      </c>
+      <c r="AO4">
+        <v>6</v>
+      </c>
+      <c r="AP4">
         <v>6</v>
       </c>
     </row>
@@ -1685,7 +2416,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC2"/>
+  <dimension ref="A1:CC4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1696,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1711,100 +2442,100 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>49</v>
@@ -1831,135 +2562,135 @@
         <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:81">
       <c r="A2">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2016,10 +2747,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="2">
-        <v>41091</v>
+        <v>42859</v>
       </c>
       <c r="AB2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2027,8 +2758,8 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AE2" s="2">
-        <v>0</v>
+      <c r="AE2" t="s">
+        <v>194</v>
       </c>
       <c r="AF2">
         <v>-1</v>
@@ -2043,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -2082,99 +2813,583 @@
         <v>6</v>
       </c>
       <c r="AX2">
+        <v>2</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81">
+      <c r="A3">
+        <v>2640</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>2951</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>44465</v>
+      </c>
+      <c r="AB3">
+        <v>65</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF3">
+        <v>-1</v>
+      </c>
+      <c r="AG3">
+        <v>-1</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>200</v>
+      </c>
+      <c r="AW3">
         <v>3</v>
       </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="b">
+      <c r="AX3">
+        <v>2</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81">
+      <c r="A4">
+        <v>2641</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>2952</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>40730</v>
+      </c>
+      <c r="AB4">
+        <v>110</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>-1</v>
+      </c>
+      <c r="AG4">
+        <v>-1</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>200</v>
+      </c>
+      <c r="AW4">
+        <v>5</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2185,7 +3400,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2196,25 +3411,25 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2222,24 +3437,76 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="210">
   <si>
     <t>UID</t>
   </si>
@@ -224,73 +224,75 @@
     <t>CareerGoal</t>
   </si>
   <si>
-    <t>bro brah</t>
-  </si>
-  <si>
-    <t>testtest</t>
-  </si>
-  <si>
-    <t>testtest1</t>
-  </si>
-  <si>
-    <t>bro</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>1666-01-01</t>
   </si>
   <si>
-    <t>brobrah.jpg</t>
-  </si>
-  <si>
-    <t>testtest.jpg</t>
-  </si>
-  <si>
-    <t>testtest1.jpg</t>
-  </si>
-  <si>
-    <t>Gimmick: Bro Brah is the ultim</t>
-  </si>
-  <si>
-    <t>Gimmick: The Techno Titan
-Tes</t>
-  </si>
-  <si>
-    <t>Gimmick: The Tech Guru
-Testte</t>
-  </si>
-  <si>
-    <t>Bro Brah is a cocky and arroga</t>
-  </si>
-  <si>
-    <t>Wrestling Gimmick: "The Mad Sc</t>
-  </si>
-  <si>
-    <t>Gimmick: The Internet Troll
-"</t>
+    <t>test1.jpg</t>
+  </si>
+  <si>
+    <t>test.jpg</t>
+  </si>
+  <si>
+    <t>Wrestling Gimmick: The Innovat</t>
+  </si>
+  <si>
+    <t>Ring Name: "The Technician"
+G</t>
+  </si>
+  <si>
+    <t>Gimmick: "The Test-Taker"
+Des</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimmick: The Innovator
+Test1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrestler Name: Test
+Gimmick: </t>
+  </si>
+  <si>
+    <t>Gimmick: The Innovator
+Test i</t>
+  </si>
+  <si>
+    <t>Gimmick: The Reckless Innovato</t>
   </si>
   <si>
     <t>Bio</t>
   </si>
   <si>
-    <t>Bro Brah, born in California, USA, is a professional wrestler known for his unique and captivating wrestling style that can only be described as Interpret. With a background in various martial arts disciplines, Bro Brah has mastered the art of combining agility, strength, and showmanship in the ring.
-Growing up, Bro Brah was always drawn to the world of professional wrestling. He idolized legendary wrestlers and spent countless hours perfecting his craft in the gym and in the ring. With his charismatic personality and natural athletic ability, Bro Brah quickly rose through the ranks of the wrestling world, captivating audiences with his high-flying maneuvers and innovative wrestling techniques.
-Bro Brah's career reached new heights when he signed with a major wrestling promotion, where he quickly became a fan favorite for his electrifying performances and unmatched charisma. His in-ring presence and ability to connect with the audience have made him a force to be reckoned with in the world of professional wrestling.
-Outside of the ring, Bro Brah is known for his philanthropic efforts and dedication to giving back to his community. He regularly volunteers at local charities and youth organizations, using his platform to inspire others to chase their dreams and never give up.
-With his unique wrestling style and larger-than-life personality, Bro Brah continues to make waves in the wrestling world, solidifying his place as one of the most dynamic and exciting wrestlers in the industry. As he continues to push the boundaries of what is possible in the ring, there is no doubt that Bro Brah's legacy will be remembered for years to come.</t>
-  </si>
-  <si>
-    <t>Testtest, born as John Smith, is a professional wrestler known for his unique and unpredictable wrestling style in the ring. Hailing from parts unknown, Testtest quickly made a name for himself in the world of professional wrestling with his innovative moves and unorthodox techniques.
-Standing at 6'5" and weighing in at 250 pounds, Testtest is an imposing figure in the squared circle. With his imposing physique and menacing presence, he strikes fear into the hearts of his opponents. His wrestling style is best described as Interpret, as he adapts to his opponents and their moves, always staying one step ahead.
-Testtest has competed in various promotions around the world, leaving a trail of destruction in his wake. He has held numerous championships and accolades throughout his career, solidifying his status as one of the top talents in the industry.
-Outside of the ring, Testtest is known for his charitable work and dedication to giving back to the community. He regularly participates in charity events and fundraisers, using his platform to make a positive impact on the world around him.
-With his combination of raw power, technical prowess, and unmatched charisma, Testtest continues to captivate audiences and dominate his competition in the world of professional wrestling. He is a force to be reckoned with, and his legacy in the industry is sure to stand the test of time.</t>
-  </si>
-  <si>
-    <t>Testtest1, born and raised in the heart of professional wrestling, discovered his passion for the sport at a young age. From the moment he stepped foot into the squared circle, it was evident that he was destined for greatness.
-Testtest1 quickly made a name for himself with his unique and innovative wrestling style, which he aptly named Interpret. Drawing inspiration from various styles and techniques, he created a dynamic and unpredictable in-ring presence that kept audiences on the edge of their seats.
-Throughout his career, Testtest1 has faced some of the toughest competitors in the wrestling world, always pushing himself to the limit and never backing down from a challenge. His dedication and drive have earned him numerous championships and accolades, solidifying his place as one of the top performers in the industry.
-Off the mat, Testtest1 is known for his charisma and larger-than-life personality, drawing fans in with his infectious energy and passion for the sport. He is a true showman, always delivering electrifying performances that leave a lasting impact on everyone who watches him.
-As Testtest1 continues to dazzle audiences around the world with his dynamic in-ring skills and captivating persona, there's no doubt that he will go down in history as one of the greatest professional wrestlers of all time.</t>
+    <t>Test1, born and raised in the heart of the wrestling world, discovered his passion for the sport at a young age. From the moment he stepped foot in the ring, it was clear that he had a natural talent and determination to succeed.
+Known for his fearless attitude and willingness to push the boundaries, Test1 quickly gained a reputation as a risk-taker in the ring. His signature move, aptly named the "Test Drive," was a devastating display of strength and agility that left his opponents in awe.
+Despite his unorthodox approach to wrestling, Test1's dedication to honing his craft never wavered. He spent countless hours perfecting his technique and studying new moves to incorporate into his arsenal. This dedication paid off as he quickly rose through the ranks of professional wrestling, earning himself a loyal fan following along the way.
+Throughout his career, Test1's wrestling style has been best described as "default," as he is constantly experimenting with new moves and strategies to keep his opponents on their toes. Whether he's facing off against a veteran wrestler or a rising star, Test1 never fails to deliver a thrilling and action-packed performance.
+As he continues to test the limits of what is possible in the ring, Test1 remains a force to be reckoned with in the world of professional wrestling. With his unwavering determination and fearless attitude, there's no telling what heights he will reach in his career.</t>
+  </si>
+  <si>
+    <t>Born and raised in the heart of the wrestling world, Test has always had a burning passion for the sport. From a young age, he knew he was destined for greatness inside the squared circle.
+Standing tall at 6'6" and weighing in at 265 pounds of pure muscle, Test is a force to be reckoned with in the ring. His signature move, the Testault, strikes fear into the hearts of his opponents as he effortlessly lifts them high into the air before slamming them down with bone-crushing force.
+Known for his innovative and daring wrestling style, Test is always looking to push the boundaries and test out new moves in his quest for glory. His unique blend of athleticism, strength, and showmanship has earned him the moniker of the "Moviestar" of the wrestling world.
+Outside of the ring, Test is a devoted family man and dedicated philanthropist, using his platform to give back to the community and inspire others to chase their dreams.
+With an unwavering determination to succeed and a hunger for competition, Test will stop at nothing to prove himself as one of the greatest wrestlers of his generation. Watch out, because when Test steps into the ring, anything can happen.</t>
+  </si>
+  <si>
+    <t>Test, born and raised in the heart of the wrestling world, is a male professional wrestler known for his innovative and daring moves in the ring. With a passion for pushing the boundaries of traditional wrestling, Test constantly tests new moves and techniques to keep his opponents on their toes.
+Honing his craft in the ring, Test has developed a wrestling style that is best described as Default - a unique blend of power, speed, and technical skill that sets him apart from his competitors. With a larger-than-life personality and a fearless attitude, Test has become a fan favorite in the world of professional wrestling.
+Throughout his career, Test has faced off against some of the toughest opponents in the industry, always pushing himself to the limit and leaving it all out in the ring. Whether he's flying high off the ropes or delivering bone-crushing suplexes, Test always keeps his audience on the edge of their seats with his electrifying performances.
+In addition to his in-ring prowess, Test is also known for his philanthropic efforts, using his platform to give back to the community and inspire others to chase their dreams. With a heart as big as his muscles, Test continues to make a lasting impact both inside and outside of the wrestling ring.</t>
+  </si>
+  <si>
+    <t>Born and raised in the gritty streets of a small town, test1 quickly made a name for himself as a fearless and innovative professional wrestler. With a thirst for new challenges and a love for trying out daring moves, test1 became known for his unpredictable style in the ring.
+Having trained in various disciplines of martial arts and combat sports, test1 developed a unique wrestling style that combined elements of acrobatics, strength, and agility. His signature moves and high-flying antics earned him the nickname "The Testmaster" among fans and peers alike.
+test1's approach to wrestling can best be described as Moviestar, as he often pushed the boundaries of what was possible in the ring, constantly testing his own limits and those of his opponents. His matches were always a spectacle to behold, with fans on the edge of their seats, never knowing what to expect next.
+Despite his willingness to take risks, test1 was also a savvy strategist in the ring, able to adapt to any situation and find a way to come out on top. With a charisma that was unmatched, test1 quickly became a fan favorite, drawing in crowds wherever he went.
+Throughout his career, test1 faced off against some of the biggest names in the industry, always looking for new challenges and opportunities to showcase his skills. His dedication to his craft and his never-say-die attitude made him a force to be reckoned with, and a true legend in the world of professional wrestling.</t>
   </si>
   <si>
     <t>WorkerUID</t>
@@ -635,10 +637,16 @@
     <t>image_generated</t>
   </si>
   <si>
-    <t>American wrestler</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>physical_description</t>
+  </si>
+  <si>
+    <t>a man who likes to test new wrestling moves</t>
+  </si>
+  <si>
+    <t>a wrestler who likes to test new moves</t>
+  </si>
+  <si>
+    <t>A wrestler who likes to test new moves</t>
   </si>
   <si>
     <t>Male</t>
@@ -648,6 +656,18 @@
   </si>
   <si>
     <t>Interpret</t>
+  </si>
+  <si>
+    <t>Test1 is a tall, muscular male wrestler with a determined expression, known for his experimentation with innovative wrestling techniques.</t>
+  </si>
+  <si>
+    <t>Test is a tall, muscular male wrestler with a penchant for trying out new moves, standing out in the ring with his chiseled physique and confident presence.</t>
+  </si>
+  <si>
+    <t>Test is a tall and muscular male wrestler with a beard and dark hair, often seen trying out new moves in the ring.</t>
+  </si>
+  <si>
+    <t>Test1 is a tall and muscular male wrestler with a toned build and a determined expression, known for his eagerness to try out new moves in the ring.</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1223,7 +1243,7 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1238,7 +1258,7 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1256,37 +1276,37 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>26781</v>
+        <v>27561</v>
       </c>
       <c r="M2" s="2">
-        <v>35507</v>
+        <v>43351</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Q2">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="R2">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="S2">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1307,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1412,13 +1432,13 @@
         <v>-1</v>
       </c>
       <c r="BL2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BM2">
         <v>1</v>
       </c>
       <c r="BN2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BO2">
         <v>1</v>
@@ -1429,7 +1449,7 @@
     </row>
     <row r="3" spans="1:68">
       <c r="A3">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1462,31 +1482,31 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>26701</v>
+        <v>35222</v>
       </c>
       <c r="M3" s="2">
-        <v>40849</v>
+        <v>41439</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O3">
         <v>3</v>
       </c>
       <c r="P3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q3">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="R3">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="S3">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1513,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1618,13 +1638,13 @@
         <v>-1</v>
       </c>
       <c r="BL3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="s">
         <v>77</v>
-      </c>
-      <c r="BM3">
-        <v>1</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>80</v>
       </c>
       <c r="BO3">
         <v>1</v>
@@ -1635,7 +1655,7 @@
     </row>
     <row r="4" spans="1:68">
       <c r="A4">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1647,10 +1667,10 @@
         <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1668,31 +1688,31 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>15816</v>
+        <v>20602</v>
       </c>
       <c r="M4" s="2">
-        <v>29264</v>
+        <v>37441</v>
       </c>
       <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>42</v>
+      </c>
+      <c r="Q4">
+        <v>296</v>
+      </c>
+      <c r="R4">
+        <v>276</v>
+      </c>
+      <c r="S4">
+        <v>322</v>
+      </c>
+      <c r="T4" t="s">
         <v>72</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>34</v>
-      </c>
-      <c r="Q4">
-        <v>270</v>
-      </c>
-      <c r="R4">
-        <v>250</v>
-      </c>
-      <c r="S4">
-        <v>297</v>
-      </c>
-      <c r="T4" t="s">
-        <v>75</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1719,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1824,18 +1844,224 @@
         <v>-1</v>
       </c>
       <c r="BL4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="s">
         <v>78</v>
       </c>
-      <c r="BM4">
-        <v>1</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>81</v>
-      </c>
       <c r="BO4">
         <v>1</v>
       </c>
       <c r="BP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5">
+        <v>2954</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>27720</v>
+      </c>
+      <c r="M5" s="2">
+        <v>36756</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>29</v>
+      </c>
+      <c r="Q5">
+        <v>252</v>
+      </c>
+      <c r="R5">
+        <v>232</v>
+      </c>
+      <c r="S5">
+        <v>284</v>
+      </c>
+      <c r="T5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>14</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>-1</v>
+      </c>
+      <c r="AH5">
+        <v>-1</v>
+      </c>
+      <c r="AI5">
+        <v>-1</v>
+      </c>
+      <c r="AJ5">
+        <v>-1</v>
+      </c>
+      <c r="AK5">
+        <v>-1</v>
+      </c>
+      <c r="AL5">
+        <v>-1</v>
+      </c>
+      <c r="AM5">
+        <v>-1</v>
+      </c>
+      <c r="AN5">
+        <v>-1</v>
+      </c>
+      <c r="AO5">
+        <v>4</v>
+      </c>
+      <c r="AP5">
+        <v>4</v>
+      </c>
+      <c r="AQ5">
+        <v>4</v>
+      </c>
+      <c r="AR5">
+        <v>4</v>
+      </c>
+      <c r="AS5">
+        <v>4</v>
+      </c>
+      <c r="AT5">
+        <v>4</v>
+      </c>
+      <c r="AU5">
+        <v>4</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>-1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>-1</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
         <v>0</v>
       </c>
     </row>
@@ -1846,7 +2072,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1857,31 +2083,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2954</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +2125,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1899,174 +2133,174 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="K2">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2075,31 +2309,31 @@
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="R2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="S2">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="T2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="U2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W2">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="X2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y2">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2155,46 +2389,46 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
         <v>58</v>
       </c>
-      <c r="D3">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>47</v>
-      </c>
       <c r="F3">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L3">
+        <v>65</v>
+      </c>
+      <c r="M3">
+        <v>61</v>
+      </c>
+      <c r="N3">
         <v>84</v>
-      </c>
-      <c r="M3">
-        <v>31</v>
-      </c>
-      <c r="N3">
-        <v>37</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2203,31 +2437,31 @@
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="R3">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="S3">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="T3">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="U3">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="V3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W3">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="X3">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="Y3">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2283,46 +2517,46 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E4">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2331,31 +2565,31 @@
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="R4">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="S4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T4">
+        <v>86</v>
+      </c>
+      <c r="U4">
+        <v>32</v>
+      </c>
+      <c r="V4">
         <v>52</v>
       </c>
-      <c r="U4">
-        <v>25</v>
-      </c>
-      <c r="V4">
-        <v>26</v>
-      </c>
       <c r="W4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Y4">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2406,6 +2640,134 @@
         <v>6</v>
       </c>
       <c r="AP4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5">
+        <v>2954</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="I5">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>86</v>
+      </c>
+      <c r="K5">
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <v>63</v>
+      </c>
+      <c r="M5">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>74</v>
+      </c>
+      <c r="R5">
+        <v>76</v>
+      </c>
+      <c r="S5">
+        <v>87</v>
+      </c>
+      <c r="T5">
+        <v>88</v>
+      </c>
+      <c r="U5">
+        <v>54</v>
+      </c>
+      <c r="V5">
+        <v>60</v>
+      </c>
+      <c r="W5">
+        <v>37</v>
+      </c>
+      <c r="X5">
+        <v>64</v>
+      </c>
+      <c r="Y5">
+        <v>64</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>100</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>6</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <v>6</v>
+      </c>
+      <c r="AO5">
+        <v>6</v>
+      </c>
+      <c r="AP5">
         <v>6</v>
       </c>
     </row>
@@ -2416,7 +2778,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC4"/>
+  <dimension ref="A1:CC5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2427,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2442,100 +2804,100 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>49</v>
@@ -2562,130 +2924,130 @@
         <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:81">
       <c r="A2">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -2747,10 +3109,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="2">
-        <v>42859</v>
+        <v>41961</v>
       </c>
       <c r="AB2">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2759,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF2">
         <v>-1</v>
@@ -2809,11 +3171,14 @@
       <c r="AU2">
         <v>200</v>
       </c>
+      <c r="AV2" t="s">
+        <v>73</v>
+      </c>
       <c r="AW2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -2911,13 +3276,13 @@
     </row>
     <row r="3" spans="1:81">
       <c r="A3">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
@@ -2926,7 +3291,7 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2989,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2">
-        <v>44465</v>
+        <v>41845</v>
       </c>
       <c r="AB3">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -3001,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF3">
         <v>-1</v>
@@ -3016,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -3051,8 +3416,11 @@
       <c r="AU3">
         <v>200</v>
       </c>
+      <c r="AV3" t="s">
+        <v>74</v>
+      </c>
       <c r="AW3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>2</v>
@@ -3153,28 +3521,28 @@
     </row>
     <row r="4" spans="1:81">
       <c r="A4">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3189,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -3228,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="Z4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <v>40730</v>
+        <v>42843</v>
       </c>
       <c r="AB4">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -3242,8 +3610,8 @@
       <c r="AD4">
         <v>0</v>
       </c>
-      <c r="AE4" s="2">
-        <v>0</v>
+      <c r="AE4" t="s">
+        <v>193</v>
       </c>
       <c r="AF4">
         <v>-1</v>
@@ -3258,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -3293,8 +3661,11 @@
       <c r="AU4">
         <v>200</v>
       </c>
+      <c r="AV4" t="s">
+        <v>75</v>
+      </c>
       <c r="AW4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -3390,6 +3761,251 @@
         <v>0</v>
       </c>
       <c r="CC4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81">
+      <c r="A5">
+        <v>2643</v>
+      </c>
+      <c r="B5">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>2954</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>42028</v>
+      </c>
+      <c r="AB5">
+        <v>46</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>-1</v>
+      </c>
+      <c r="AG5">
+        <v>-1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>200</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>2</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3400,96 +4016,114 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2953</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>202</v>
       </c>
       <c r="D2" t="s">
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2953</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>201</v>
-      </c>
-      <c r="C3" t="s">
-        <v>202</v>
       </c>
       <c r="D3" t="s">
         <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
         <v>204</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>70</v>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2953</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
@@ -3498,16 +4132,54 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
         <v>204</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2954</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -20,9 +20,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -821,10 +821,10 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>27561</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>43351</v>
       </c>
       <c r="N2" t="inlineStr">
@@ -1039,10 +1039,10 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="3" t="n">
         <v>35222</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="3" t="n">
         <v>41439</v>
       </c>
       <c r="N3" t="inlineStr">
@@ -1259,10 +1259,10 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <v>20602</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="3" t="n">
         <v>37441</v>
       </c>
       <c r="N4" t="inlineStr">
@@ -1479,10 +1479,10 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="3" t="n">
         <v>27720</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="3" t="n">
         <v>36756</v>
       </c>
       <c r="N5" t="inlineStr">
@@ -3000,7 +3000,7 @@
       <c r="Z2" t="b">
         <v>1</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AA2" s="3" t="n">
         <v>41961</v>
       </c>
       <c r="AB2" t="n">
@@ -3255,7 +3255,7 @@
       <c r="Z3" t="b">
         <v>1</v>
       </c>
-      <c r="AA3" s="2" t="n">
+      <c r="AA3" s="3" t="n">
         <v>41845</v>
       </c>
       <c r="AB3" t="n">
@@ -3511,7 +3511,7 @@
       <c r="Z4" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AA4" s="3" t="n">
         <v>42843</v>
       </c>
       <c r="AB4" t="n">
@@ -3767,7 +3767,7 @@
       <c r="Z5" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" s="2" t="n">
+      <c r="AA5" s="3" t="n">
         <v>42028</v>
       </c>
       <c r="AB5" t="n">
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,6 +1240,224 @@
         <v>1</v>
       </c>
       <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2963</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tiger Mask</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>29026</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>42388</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1666-01-01</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>241</v>
+      </c>
+      <c r="R4" t="n">
+        <v>221</v>
+      </c>
+      <c r="S4" t="n">
+        <v>280</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>tigermask.jpg</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>9</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>Roaring Tiger</t>
+        </is>
+      </c>
+      <c r="BM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>Sneaky Saboteur</t>
+        </is>
+      </c>
+      <c r="BO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1254,7 +1472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,6 +1517,20 @@
 In the ring, Mustafa Godafa is a master of mind games, using his unorthodox style to outsmart and outmaneuver his opponents. With lightning-fast strikes and expert grappling techniques, he can take down even the most formidable foes with ease.
 Outside of the ring, Mustafa Godafa is a devoted family man and a pillar of his community. He uses his platform as a wrestler to raise awareness for important causes and give back to those in need.
 Whether he's thrilling audiences with his high-flying acrobatics or cunningly outsmarting his rivals, Mustafa Godafa is a true standout in the world of professional wrestling, leaving a lasting impression wherever he goes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2963</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tiger Mask, a fierce and thrilling professional wrestler, has captured the hearts of fans all over the world with his unique blend of athleticism and showmanship. Born and raised in the heart of Mexico, Tiger Mask was drawn to the world of lucha libre from a young age, inspired by the legendary masked wrestlers who graced the ring before him.
+Donning a striking tiger mask that conceals his true identity, Tiger Mask is a master of the high-flying and acrobatic style of lucha libre. With lightning-fast speed and agility, he dazzles audiences with his gravity-defying maneuvers and death-defying dives.
+Tiger Mask's wrestling style is best described as Interpret, where he incorporates elements of traditional lucha libre with his own innovative twists and turns. His matches are always a sight to behold, as he seamlessly transitions from dazzling aerial assaults to devastating power moves, leaving his opponents gasping for breath.
+Outside of the ring, Tiger Mask is a quiet and humble individual, dedicated to perfecting his craft and entertaining the masses. Whether he's headlining sold-out arena shows or competing in underground wrestling leagues, Tiger Mask always gives his all, determined to prove that he is one of the greatest luchadors of his generation.
+With his captivating charisma and unmatched skill in the ring, Tiger Mask has cemented his place as a true legend in the world of professional wrestling. Fans everywhere eagerly await his next electrifying performance, knowing that they are in for a truly unforgettable experience every time Tiger Mask steps foot in the ring.</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1786,6 +2018,134 @@
         <v>6</v>
       </c>
       <c r="AP3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2963</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68</v>
+      </c>
+      <c r="E4" t="n">
+        <v>77</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>59</v>
+      </c>
+      <c r="I4" t="n">
+        <v>67</v>
+      </c>
+      <c r="J4" t="n">
+        <v>74</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+      <c r="L4" t="n">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>45</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O4" t="n">
+        <v>100</v>
+      </c>
+      <c r="P4" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>74</v>
+      </c>
+      <c r="R4" t="n">
+        <v>86</v>
+      </c>
+      <c r="S4" t="n">
+        <v>74</v>
+      </c>
+      <c r="T4" t="n">
+        <v>23</v>
+      </c>
+      <c r="U4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V4" t="n">
+        <v>40</v>
+      </c>
+      <c r="W4" t="n">
+        <v>43</v>
+      </c>
+      <c r="X4" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>87</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1800,7 +2160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC3"/>
+  <dimension ref="A1:CC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2562,8 +2922,10 @@
       <c r="AD3" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="2" t="n">
-        <v>0</v>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="AF3" t="n">
         <v>-1</v>
@@ -2710,6 +3072,254 @@
         <v>0</v>
       </c>
       <c r="CC3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2652</v>
+      </c>
+      <c r="B4" t="n">
+        <v>118</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2963</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tiger Mask</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>tigermask.jpg</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>43072</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>112</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2724,7 +3334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2880,6 +3490,54 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tiger Mask</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A luchador that wears a tiger mask</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Athletic Fury Wrestling Co.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Interpret</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>tigermask.jpg</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tiger Mask is a tall and lean luchador with a muscular build, wearing his signature tiger mask that covers his entire face.</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,6 +1458,224 @@
         <v>1</v>
       </c>
       <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2964</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mr Bubba</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>32116</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1666-01-01</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>262</v>
+      </c>
+      <c r="R5" t="n">
+        <v>242</v>
+      </c>
+      <c r="S5" t="n">
+        <v>296</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>mrbubba.jpg</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>Bunny Brawler</t>
+        </is>
+      </c>
+      <c r="BM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>Bunny Villain</t>
+        </is>
+      </c>
+      <c r="BO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1472,7 +1690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,6 +1749,20 @@
 Tiger Mask's wrestling style is best described as Interpret, where he incorporates elements of traditional lucha libre with his own innovative twists and turns. His matches are always a sight to behold, as he seamlessly transitions from dazzling aerial assaults to devastating power moves, leaving his opponents gasping for breath.
 Outside of the ring, Tiger Mask is a quiet and humble individual, dedicated to perfecting his craft and entertaining the masses. Whether he's headlining sold-out arena shows or competing in underground wrestling leagues, Tiger Mask always gives his all, determined to prove that he is one of the greatest luchadors of his generation.
 With his captivating charisma and unmatched skill in the ring, Tiger Mask has cemented his place as a true legend in the world of professional wrestling. Fans everywhere eagerly await his next electrifying performance, knowing that they are in for a truly unforgettable experience every time Tiger Mask steps foot in the ring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2964</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Introducing the enigmatic and mysterious professional wrestler known as Mr. Bubba. Hailing from parts unknown, Mr. Bubba is a male competitor who has taken the wrestling world by storm with his unique and captivating persona.
+Sporting a bunny mask that covers his face, Mr. Bubba brings a sense of intrigue and unpredictability to the ring. His wrestling style is unlike anything fans have seen before, as he seamlessly blends elements of interpretive dance with traditional wrestling techniques, creating a one-of-a-kind performance that leaves audiences in awe.
+Despite his unconventional approach, Mr. Bubba has quickly earned a reputation as a formidable competitor in the squared circle. His agility and athleticism are unmatched, allowing him to execute breathtaking maneuvers with precision and grace.
+Off the mat, Mr. Bubba remains an enigma, rarely speaking or revealing his true identity. This air of mystery only adds to his allure, leaving fans and fellow wrestlers alike wondering what secrets lie beneath the bunny mask.
+Whether he's captivating audiences with his mesmerizing performances or outwitting opponents with his unconventional style, Mr. Bubba is a force to be reckoned with in the world of professional wrestling. With his unique blend of creativity and athleticism, he is sure to leave a lasting impression on the industry for years to come.</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,6 +2378,134 @@
         <v>6</v>
       </c>
       <c r="AP4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2964</v>
+      </c>
+      <c r="B5" t="n">
+        <v>53</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>65</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34</v>
+      </c>
+      <c r="I5" t="n">
+        <v>82</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>53</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89</v>
+      </c>
+      <c r="M5" t="n">
+        <v>81</v>
+      </c>
+      <c r="N5" t="n">
+        <v>33</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100</v>
+      </c>
+      <c r="P5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>65</v>
+      </c>
+      <c r="R5" t="n">
+        <v>78</v>
+      </c>
+      <c r="S5" t="n">
+        <v>81</v>
+      </c>
+      <c r="T5" t="n">
+        <v>33</v>
+      </c>
+      <c r="U5" t="n">
+        <v>68</v>
+      </c>
+      <c r="V5" t="n">
+        <v>51</v>
+      </c>
+      <c r="W5" t="n">
+        <v>55</v>
+      </c>
+      <c r="X5" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2160,7 +2520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC4"/>
+  <dimension ref="A1:CC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3172,8 +3532,10 @@
       <c r="AD4" t="n">
         <v>0</v>
       </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="AF4" t="n">
         <v>-1</v>
@@ -3320,6 +3682,254 @@
         <v>0</v>
       </c>
       <c r="CC4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2653</v>
+      </c>
+      <c r="B5" t="n">
+        <v>119</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2964</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mr Bubba</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>mrbubba.jpg</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>43446</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>253</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3334,7 +3944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3538,6 +4148,54 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mr Bubba</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A new kind of wrestler that wears a bunny mask</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bubba</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Interpret</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>mrbubba.jpg</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mr Bubba stands at 6 feet tall, with a muscular build and a mysterious aura emanating from his intimidating stature and unique bunny mask.</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="294">
   <si>
     <t>UID</t>
   </si>
@@ -248,6 +248,21 @@
     <t>Tigerio</t>
   </si>
   <si>
+    <t>Bark Browman</t>
+  </si>
+  <si>
+    <t>Bron Browman</t>
+  </si>
+  <si>
+    <t>Mexico Man</t>
+  </si>
+  <si>
+    <t>Mexico Superstar</t>
+  </si>
+  <si>
+    <t>Maple Man</t>
+  </si>
+  <si>
     <t>Mustafa</t>
   </si>
   <si>
@@ -263,6 +278,15 @@
     <t>Fred</t>
   </si>
   <si>
+    <t>Bark</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
     <t>1666-01-01</t>
   </si>
   <si>
@@ -290,6 +314,21 @@
     <t>tigerio.jpg</t>
   </si>
   <si>
+    <t>barkbrowman.jpg</t>
+  </si>
+  <si>
+    <t>bronbrowman.jpg</t>
+  </si>
+  <si>
+    <t>mexicoman.jpg</t>
+  </si>
+  <si>
+    <t>mexicosuperstar.jpg</t>
+  </si>
+  <si>
+    <t>mapleman.jpg</t>
+  </si>
+  <si>
     <t>Mustachio is a charismatic and</t>
   </si>
   <si>
@@ -308,6 +347,24 @@
     <t>"The Submission Specialist"</t>
   </si>
   <si>
+    <t>The Patriotizer.</t>
+  </si>
+  <si>
+    <t>"The International Hero"</t>
+  </si>
+  <si>
+    <t>Luchador Hero</t>
+  </si>
+  <si>
+    <t>Mexican Hero</t>
+  </si>
+  <si>
+    <t>Lucha Libre Hero.</t>
+  </si>
+  <si>
+    <t>Patriotic Canadian</t>
+  </si>
+  <si>
     <t>Gimmick: Mustachio, the Sultan</t>
   </si>
   <si>
@@ -330,6 +387,24 @@
   </si>
   <si>
     <t>Savage Tiger</t>
+  </si>
+  <si>
+    <t>"The American Outlaw"</t>
+  </si>
+  <si>
+    <t>"The Bollywood Bad Boy"</t>
+  </si>
+  <si>
+    <t>Lucha Libre Legend</t>
+  </si>
+  <si>
+    <t>Arrogant and flamboyant</t>
+  </si>
+  <si>
+    <t>Nationalist villain</t>
+  </si>
+  <si>
+    <t>Nationalistic villain</t>
   </si>
   <si>
     <t>Bio</t>
@@ -391,6 +466,42 @@
 With his sights set on championship gold, Tigerio continues to mesmerize audiences around the world with his electrifying performances. Watch out for this fierce luchador, as he is destined for greatness in the world of professional wrestling.</t>
   </si>
   <si>
+    <t>Bark Browman, hailing from the gritty streets of Chicago, is a professional wrestler whose name is synonymous with intensity and passion in the squared circle. With a chiseled physique and a commanding presence, Bark has captivated audiences around the world with his unique wrestling style, which can only be described as Interpret.
+Born into a family of wrestlers, Bark quickly rose through the ranks of the independent wrestling scene, earning a reputation for his unmatched athleticism and fearlessness in the ring. His signature move, the "Browman Bomb," has left countless opponents on the mat, unable to get back up.
+Despite being a household name in America and India, Bark remains relatively unknown in other parts of the world. But that has not deterred him from continuing to chase his dreams of becoming the best wrestler in the world. With a never-say-die attitude and a hunger for success, Bark Browman is a force to be reckoned with in the world of professional wrestling.</t>
+  </si>
+  <si>
+    <t>Bron Browman, born and raised in Mumbai, India, is a professional wrestler who has taken the wrestling world by storm. With his unique blend of strength, speed, and agility, Bron has captivated audiences in both India and America with his electrifying performances in the ring.
+Bron's wrestling style is best described as Interpret, as he seamlessly incorporates elements of various wrestling disciplines to create a dynamic and unpredictable in-ring presence. Whether he's executing high-flying aerial maneuvers or overpowering his opponents with brute force, Bron always keeps his opponents and fans on their toes.
+Despite his immense popularity in India and America, Bron Browman remains a relatively unknown figure in other parts of the world. However, his growing fan base and impressive track record in the ring are sure to solidify his status as a rising star in the world of professional wrestling.
+Outside of the ring, Bron is known for his philanthropic efforts, regularly participating in charity events and using his platform to raise awareness for important causes. With his combination of talent, charisma, and dedication, Bron Browman is undoubtedly a force to be reckoned with in the world of professional wrestling.</t>
+  </si>
+  <si>
+    <t>Mexico Man, born Ricardo Lopez, is a true legend in the world of professional wrestling. Hailing from the colorful streets of Mexico City, Mexico Man has captivated audiences with his unique wrestling style and larger-than-life personality for over two decades.
+Known for his high-flying maneuvers and fearless attitude in the ring, Mexico Man has become a fan favorite in Mexico, where he has headlined countless sold-out shows and captured several championship titles. His innovative wrestling style, which he calls "Interpret," combines elements of lucha libre, acrobatics, and traditional grappling techniques, creating a truly electrifying experience for fans.
+Despite his immense popularity in Mexico, Mexico Man remains relatively unknown outside of his home country. However, those who have had the privilege of witnessing his performances have praised him as one of the greatest wrestlers of his generation.
+Off the ring, Mexico Man is known for his charitable work in his community, often donating his time and resources to help those in need. He is also a proud father and dedicated family man, finding balance between his larger-than-life persona in the ring and his humble, down-to-earth nature outside of it.
+As Mexico Man continues to thrill audiences and inspire young wrestlers around the world, his legacy as a true icon of Mexican wrestling is solidified, leaving a lasting impact on the sport that will be remembered for generations to come.</t>
+  </si>
+  <si>
+    <t>Mexico Superstar is a highly respected and beloved professional wrestler who has achieved superstar status in Mexico. Born and raised in the vibrant wrestling scene of Mexico City, Mexico Superstar honed his skills in the ring from a young age, quickly rising to prominence with his unique blend of athleticism, charisma, and technical prowess.
+With his larger-than-life personality and captivating in-ring presence, Mexico Superstar has become a fan favorite in his home country, drawing huge crowds to arenas across Mexico and captivating audiences with his high-flying acrobatics and innovative wrestling techniques. Known for his innovative and unpredictable wrestling style, Mexico Superstar is a true master of the art form, always pushing the boundaries of what is possible inside the squared circle.
+Despite his immense popularity and success in Mexico, Mexico Superstar remains relatively unknown in other regions, a fact that he hopes to change as he continues to strive for greatness in the world of professional wrestling. With his sights set on conquering new territories and winning over fans around the globe, Mexico Superstar is determined to prove himself as one of the greatest wrestlers of his generation and cement his legacy as a true legend in the world of sports entertainment.</t>
+  </si>
+  <si>
+    <t>Mexico Superstar is a male professional wrestler who has captured the hearts of fans all across Mexico with his unique and captivating wrestling style. While relatively unknown outside of Mexico, he is a true superstar in his home country, drawing crowds and generating excitement wherever he goes.
+Born and raised in the vibrant wrestling culture of Mexico, Mexico Superstar learned the ropes at a young age and quickly rose through the ranks to become one of the most exciting and dynamic wrestlers in the country. His style is best described as Interpret, a blend of high-flying acrobatics, technical expertise, and a flair for the dramatic that sets him apart from his peers.
+Mexico Superstar has faced off against some of the best wrestlers in the world, always putting on a show-stopping performance that leaves fans on the edge of their seats. Whether he's soaring through the air with a perfectly executed dive or outsmarting his opponent with a clever counter, Mexico Superstar always leaves his mark on the wrestling world.
+Despite his success at home, Mexico Superstar dreams of taking his talents to the global stage and proving himself against the best wrestlers from around the world. With his incredible skill, passion for the sport, and unwavering determination, there's no doubt that Mexico Superstar has what it takes to become a true superstar in the world of professional wrestling.</t>
+  </si>
+  <si>
+    <t>Maple Man, born and raised in Ontario, Canada, has become a household name in the world of professional wrestling. Standing at 6 feet 4 inches tall and weighing in at 240 pounds, Maple Man is a force to be reckoned with in the ring.
+Known for his unique wrestling style, Maple Man incorporates elements of traditional Canadian wrestling with a touch of Indian flair, making him a standout performer in both countries. His ability to seamlessly blend these styles has garnered him a loyal fan base in Canada and India, where he is a bonafide superstar.
+Maple Man first burst onto the wrestling scene in his early 20s, quickly rising through the ranks of local promotions before catching the attention of larger organizations. With his charisma, athleticism, and in-ring prowess, Maple Man has become a mainstay in the wrestling world, headlining events and captivating audiences with his dynamic performances.
+Outside of the ring, Maple Man is known for his philanthropic efforts, regularly giving back to the communities that have supported him throughout his career. Whether he's raising money for charity or visiting children in hospitals, Maple Man is always looking for ways to make a positive impact on the world around him.
+As Maple Man continues to dominate the wrestling scene in Canada and India, fans around the world are starting to take notice of this rising star. With his talent, drive, and undeniable charisma, Maple Man is poised to become a global sensation in the world of professional wrestling.</t>
+  </si>
+  <si>
     <t>WorkerUID</t>
   </si>
   <si>
@@ -760,6 +871,24 @@
     <t>A luchador who wears a tiger mask</t>
   </si>
   <si>
+    <t>A man who is very popular in America and India, but not known very well anywhere else.</t>
+  </si>
+  <si>
+    <t>A man who is very popular in India and America, but not known anywhere else.</t>
+  </si>
+  <si>
+    <t>a superstar in Mexico, but not known at all anywhere else.</t>
+  </si>
+  <si>
+    <t>A man who is a superstar level of popular in Mexico, but unknown in other regions.</t>
+  </si>
+  <si>
+    <t>a man wildly popular in Mexico but nowhere else</t>
+  </si>
+  <si>
+    <t>A man extremely popular in Canada and India, but nowhere else.</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -803,6 +932,24 @@
   </si>
   <si>
     <t>Tigerio is a tall and muscular Hispanic luchador with a distinctive tiger mask that adds an air of mystery to his impressive physical presence.</t>
+  </si>
+  <si>
+    <t>Bark Browman is a tall and muscular Indian wrestler with a prominent beard and piercing gaze.</t>
+  </si>
+  <si>
+    <t>Bron Browman is a towering Pacific Islander with a muscular build, standing at 6'6" tall, adorned with tribal tattoos across his massive arms and chest.</t>
+  </si>
+  <si>
+    <t>Mexico Man is a tall and muscular Hispanic wrestler with a luchador mask that covers his face, adding an air of mystery to his persona.</t>
+  </si>
+  <si>
+    <t>The Mexico Superstar is a tall and muscular Hispanic man with a strikingly handsome face adorned with a lucha libre mask.</t>
+  </si>
+  <si>
+    <t>Mexico Superstar is a slender and agile luchador with a height of 5'11", featuring intricate tattoos covering his arms and chest.</t>
+  </si>
+  <si>
+    <t>Maple Man is a towering Pacific Islander wrestler with a powerful build, standing at 6'6", and recognizable for his intricate Maori tribal tattoos that cover his arms and chest.</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1564,7 @@
         <v>37518</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1435,7 +1582,7 @@
         <v>257</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -1567,13 +1714,13 @@
         <v>-1</v>
       </c>
       <c r="BL2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="BM2">
         <v>1</v>
       </c>
       <c r="BN2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="BO2">
         <v>1</v>
@@ -1599,7 +1746,7 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1623,7 +1770,7 @@
         <v>34415</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -1641,7 +1788,7 @@
         <v>298</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1773,13 +1920,13 @@
         <v>-1</v>
       </c>
       <c r="BL3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="BM3">
         <v>1</v>
       </c>
       <c r="BN3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BO3">
         <v>1</v>
@@ -1805,7 +1952,7 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1829,7 +1976,7 @@
         <v>42388</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O4">
         <v>7</v>
@@ -1847,7 +1994,7 @@
         <v>280</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1979,13 +2126,13 @@
         <v>-1</v>
       </c>
       <c r="BL4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="BM4">
         <v>1</v>
       </c>
       <c r="BN4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="BO4">
         <v>1</v>
@@ -2011,7 +2158,7 @@
         <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2035,7 +2182,7 @@
         <v>39448</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2053,7 +2200,7 @@
         <v>296</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -2185,13 +2332,13 @@
         <v>-1</v>
       </c>
       <c r="BL5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="BM5">
         <v>1</v>
       </c>
       <c r="BN5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="BO5">
         <v>1</v>
@@ -2217,7 +2364,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2241,7 +2388,7 @@
         <v>30928</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2259,7 +2406,7 @@
         <v>255</v>
       </c>
       <c r="T6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -2391,13 +2538,13 @@
         <v>-1</v>
       </c>
       <c r="BL6" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="BM6">
         <v>1</v>
       </c>
       <c r="BN6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="BO6">
         <v>1</v>
@@ -2423,7 +2570,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2447,7 +2594,7 @@
         <v>31990</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -2465,7 +2612,7 @@
         <v>373</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -2597,13 +2744,13 @@
         <v>-1</v>
       </c>
       <c r="BL7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="BM7">
         <v>1</v>
       </c>
       <c r="BN7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BO7">
         <v>1</v>
@@ -2629,7 +2776,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2653,7 +2800,7 @@
         <v>30024</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O8">
         <v>4</v>
@@ -2671,7 +2818,7 @@
         <v>335</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -2803,13 +2950,13 @@
         <v>-1</v>
       </c>
       <c r="BL8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="BM8">
         <v>1</v>
       </c>
       <c r="BN8" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="BO8">
         <v>1</v>
@@ -2859,7 +3006,7 @@
         <v>31762</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O9">
         <v>7</v>
@@ -2877,7 +3024,7 @@
         <v>263</v>
       </c>
       <c r="T9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -3015,12 +3162,1248 @@
         <v>1</v>
       </c>
       <c r="BN9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="BO9">
         <v>1</v>
       </c>
       <c r="BP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10">
+        <v>2969</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>22703</v>
+      </c>
+      <c r="M10" s="2">
+        <v>38946</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
+      <c r="Q10">
+        <v>200</v>
+      </c>
+      <c r="R10">
+        <v>180</v>
+      </c>
+      <c r="S10">
+        <v>239</v>
+      </c>
+      <c r="T10" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>-1</v>
+      </c>
+      <c r="AH10">
+        <v>-1</v>
+      </c>
+      <c r="AI10">
+        <v>-1</v>
+      </c>
+      <c r="AJ10">
+        <v>-1</v>
+      </c>
+      <c r="AK10">
+        <v>-1</v>
+      </c>
+      <c r="AL10">
+        <v>-1</v>
+      </c>
+      <c r="AM10">
+        <v>-1</v>
+      </c>
+      <c r="AN10">
+        <v>-1</v>
+      </c>
+      <c r="AO10">
+        <v>4</v>
+      </c>
+      <c r="AP10">
+        <v>4</v>
+      </c>
+      <c r="AQ10">
+        <v>4</v>
+      </c>
+      <c r="AR10">
+        <v>4</v>
+      </c>
+      <c r="AS10">
+        <v>4</v>
+      </c>
+      <c r="AT10">
+        <v>4</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>-1</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>-1</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM10">
+        <v>1</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11">
+        <v>2969</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20754</v>
+      </c>
+      <c r="M11" s="2">
+        <v>29377</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>26</v>
+      </c>
+      <c r="Q11">
+        <v>323</v>
+      </c>
+      <c r="R11">
+        <v>303</v>
+      </c>
+      <c r="S11">
+        <v>348</v>
+      </c>
+      <c r="T11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>11</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>-1</v>
+      </c>
+      <c r="AH11">
+        <v>-1</v>
+      </c>
+      <c r="AI11">
+        <v>-1</v>
+      </c>
+      <c r="AJ11">
+        <v>-1</v>
+      </c>
+      <c r="AK11">
+        <v>-1</v>
+      </c>
+      <c r="AL11">
+        <v>-1</v>
+      </c>
+      <c r="AM11">
+        <v>-1</v>
+      </c>
+      <c r="AN11">
+        <v>-1</v>
+      </c>
+      <c r="AO11">
+        <v>4</v>
+      </c>
+      <c r="AP11">
+        <v>4</v>
+      </c>
+      <c r="AQ11">
+        <v>4</v>
+      </c>
+      <c r="AR11">
+        <v>4</v>
+      </c>
+      <c r="AS11">
+        <v>4</v>
+      </c>
+      <c r="AT11">
+        <v>4</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>-1</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>-1</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12">
+        <v>2970</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>15841</v>
+      </c>
+      <c r="M12" s="2">
+        <v>30787</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="Q12">
+        <v>248</v>
+      </c>
+      <c r="R12">
+        <v>228</v>
+      </c>
+      <c r="S12">
+        <v>290</v>
+      </c>
+      <c r="T12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>-1</v>
+      </c>
+      <c r="AH12">
+        <v>-1</v>
+      </c>
+      <c r="AI12">
+        <v>-1</v>
+      </c>
+      <c r="AJ12">
+        <v>-1</v>
+      </c>
+      <c r="AK12">
+        <v>-1</v>
+      </c>
+      <c r="AL12">
+        <v>-1</v>
+      </c>
+      <c r="AM12">
+        <v>-1</v>
+      </c>
+      <c r="AN12">
+        <v>-1</v>
+      </c>
+      <c r="AO12">
+        <v>4</v>
+      </c>
+      <c r="AP12">
+        <v>4</v>
+      </c>
+      <c r="AQ12">
+        <v>4</v>
+      </c>
+      <c r="AR12">
+        <v>4</v>
+      </c>
+      <c r="AS12">
+        <v>4</v>
+      </c>
+      <c r="AT12">
+        <v>4</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>-1</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>-1</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM12">
+        <v>1</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13">
+        <v>2971</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>15876</v>
+      </c>
+      <c r="M13" s="2">
+        <v>31434</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>32</v>
+      </c>
+      <c r="Q13">
+        <v>279</v>
+      </c>
+      <c r="R13">
+        <v>259</v>
+      </c>
+      <c r="S13">
+        <v>323</v>
+      </c>
+      <c r="T13" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>-1</v>
+      </c>
+      <c r="AH13">
+        <v>-1</v>
+      </c>
+      <c r="AI13">
+        <v>-1</v>
+      </c>
+      <c r="AJ13">
+        <v>-1</v>
+      </c>
+      <c r="AK13">
+        <v>-1</v>
+      </c>
+      <c r="AL13">
+        <v>-1</v>
+      </c>
+      <c r="AM13">
+        <v>-1</v>
+      </c>
+      <c r="AN13">
+        <v>-1</v>
+      </c>
+      <c r="AO13">
+        <v>4</v>
+      </c>
+      <c r="AP13">
+        <v>4</v>
+      </c>
+      <c r="AQ13">
+        <v>4</v>
+      </c>
+      <c r="AR13">
+        <v>4</v>
+      </c>
+      <c r="AS13">
+        <v>4</v>
+      </c>
+      <c r="AT13">
+        <v>4</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>-1</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>-1</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM13">
+        <v>1</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14">
+        <v>2971</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>21937</v>
+      </c>
+      <c r="M14" s="2">
+        <v>39533</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>28</v>
+      </c>
+      <c r="Q14">
+        <v>211</v>
+      </c>
+      <c r="R14">
+        <v>191</v>
+      </c>
+      <c r="S14">
+        <v>260</v>
+      </c>
+      <c r="T14" t="s">
+        <v>101</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>-1</v>
+      </c>
+      <c r="AH14">
+        <v>-1</v>
+      </c>
+      <c r="AI14">
+        <v>-1</v>
+      </c>
+      <c r="AJ14">
+        <v>-1</v>
+      </c>
+      <c r="AK14">
+        <v>-1</v>
+      </c>
+      <c r="AL14">
+        <v>-1</v>
+      </c>
+      <c r="AM14">
+        <v>-1</v>
+      </c>
+      <c r="AN14">
+        <v>-1</v>
+      </c>
+      <c r="AO14">
+        <v>4</v>
+      </c>
+      <c r="AP14">
+        <v>4</v>
+      </c>
+      <c r="AQ14">
+        <v>4</v>
+      </c>
+      <c r="AR14">
+        <v>4</v>
+      </c>
+      <c r="AS14">
+        <v>4</v>
+      </c>
+      <c r="AT14">
+        <v>4</v>
+      </c>
+      <c r="AU14">
+        <v>4</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>-1</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>-1</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM14">
+        <v>1</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15">
+        <v>2972</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30130</v>
+      </c>
+      <c r="M15" s="2">
+        <v>43588</v>
+      </c>
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <v>194</v>
+      </c>
+      <c r="R15">
+        <v>174</v>
+      </c>
+      <c r="S15">
+        <v>217</v>
+      </c>
+      <c r="T15" t="s">
+        <v>102</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>-1</v>
+      </c>
+      <c r="AH15">
+        <v>-1</v>
+      </c>
+      <c r="AI15">
+        <v>-1</v>
+      </c>
+      <c r="AJ15">
+        <v>-1</v>
+      </c>
+      <c r="AK15">
+        <v>-1</v>
+      </c>
+      <c r="AL15">
+        <v>-1</v>
+      </c>
+      <c r="AM15">
+        <v>-1</v>
+      </c>
+      <c r="AN15">
+        <v>-1</v>
+      </c>
+      <c r="AO15">
+        <v>4</v>
+      </c>
+      <c r="AP15">
+        <v>4</v>
+      </c>
+      <c r="AQ15">
+        <v>4</v>
+      </c>
+      <c r="AR15">
+        <v>4</v>
+      </c>
+      <c r="AS15">
+        <v>4</v>
+      </c>
+      <c r="AT15">
+        <v>4</v>
+      </c>
+      <c r="AU15">
+        <v>4</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>-1</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>-1</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM15">
+        <v>1</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +4414,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3042,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3050,7 +4433,7 @@
         <v>2961</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3058,7 +4441,7 @@
         <v>2962</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3066,7 +4449,7 @@
         <v>2963</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3074,7 +4457,7 @@
         <v>2964</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3082,7 +4465,7 @@
         <v>2965</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3090,7 +4473,7 @@
         <v>2966</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3098,7 +4481,7 @@
         <v>2967</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3106,7 +4489,55 @@
         <v>2968</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2969</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2969</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2970</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2971</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>2971</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>2972</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3116,7 +4547,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3124,130 +4555,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -4271,6 +5702,774 @@
         <v>6</v>
       </c>
       <c r="AP9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10">
+        <v>2969</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>86</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>82</v>
+      </c>
+      <c r="K10">
+        <v>89</v>
+      </c>
+      <c r="L10">
+        <v>59</v>
+      </c>
+      <c r="M10">
+        <v>65</v>
+      </c>
+      <c r="N10">
+        <v>64</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>67</v>
+      </c>
+      <c r="R10">
+        <v>72</v>
+      </c>
+      <c r="S10">
+        <v>87</v>
+      </c>
+      <c r="T10">
+        <v>85</v>
+      </c>
+      <c r="U10">
+        <v>77</v>
+      </c>
+      <c r="V10">
+        <v>68</v>
+      </c>
+      <c r="W10">
+        <v>74</v>
+      </c>
+      <c r="X10">
+        <v>81</v>
+      </c>
+      <c r="Y10">
+        <v>64</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>100</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>6</v>
+      </c>
+      <c r="AM10">
+        <v>6</v>
+      </c>
+      <c r="AN10">
+        <v>6</v>
+      </c>
+      <c r="AO10">
+        <v>6</v>
+      </c>
+      <c r="AP10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11">
+        <v>2969</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>53</v>
+      </c>
+      <c r="J11">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>76</v>
+      </c>
+      <c r="L11">
+        <v>98</v>
+      </c>
+      <c r="M11">
+        <v>98</v>
+      </c>
+      <c r="N11">
+        <v>47</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>72</v>
+      </c>
+      <c r="R11">
+        <v>88</v>
+      </c>
+      <c r="S11">
+        <v>88</v>
+      </c>
+      <c r="T11">
+        <v>40</v>
+      </c>
+      <c r="U11">
+        <v>21</v>
+      </c>
+      <c r="V11">
+        <v>76</v>
+      </c>
+      <c r="W11">
+        <v>25</v>
+      </c>
+      <c r="X11">
+        <v>64</v>
+      </c>
+      <c r="Y11">
+        <v>47</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>100</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>6</v>
+      </c>
+      <c r="AM11">
+        <v>6</v>
+      </c>
+      <c r="AN11">
+        <v>6</v>
+      </c>
+      <c r="AO11">
+        <v>6</v>
+      </c>
+      <c r="AP11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12">
+        <v>2970</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <v>82</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>51</v>
+      </c>
+      <c r="J12">
+        <v>59</v>
+      </c>
+      <c r="K12">
+        <v>71</v>
+      </c>
+      <c r="L12">
+        <v>90</v>
+      </c>
+      <c r="M12">
+        <v>77</v>
+      </c>
+      <c r="N12">
+        <v>31</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>27</v>
+      </c>
+      <c r="S12">
+        <v>21</v>
+      </c>
+      <c r="T12">
+        <v>51</v>
+      </c>
+      <c r="U12">
+        <v>52</v>
+      </c>
+      <c r="V12">
+        <v>69</v>
+      </c>
+      <c r="W12">
+        <v>30</v>
+      </c>
+      <c r="X12">
+        <v>29</v>
+      </c>
+      <c r="Y12">
+        <v>81</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>100</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>6</v>
+      </c>
+      <c r="AM12">
+        <v>6</v>
+      </c>
+      <c r="AN12">
+        <v>6</v>
+      </c>
+      <c r="AO12">
+        <v>6</v>
+      </c>
+      <c r="AP12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13">
+        <v>2971</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>62</v>
+      </c>
+      <c r="H13">
+        <v>49</v>
+      </c>
+      <c r="I13">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>57</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>58</v>
+      </c>
+      <c r="N13">
+        <v>70</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>49</v>
+      </c>
+      <c r="R13">
+        <v>36</v>
+      </c>
+      <c r="S13">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <v>30</v>
+      </c>
+      <c r="U13">
+        <v>81</v>
+      </c>
+      <c r="V13">
+        <v>64</v>
+      </c>
+      <c r="W13">
+        <v>29</v>
+      </c>
+      <c r="X13">
+        <v>41</v>
+      </c>
+      <c r="Y13">
+        <v>43</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>100</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>6</v>
+      </c>
+      <c r="AM13">
+        <v>6</v>
+      </c>
+      <c r="AN13">
+        <v>6</v>
+      </c>
+      <c r="AO13">
+        <v>6</v>
+      </c>
+      <c r="AP13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14">
+        <v>2971</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>87</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>90</v>
+      </c>
+      <c r="H14">
+        <v>69</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>51</v>
+      </c>
+      <c r="M14">
+        <v>46</v>
+      </c>
+      <c r="N14">
+        <v>60</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>49</v>
+      </c>
+      <c r="R14">
+        <v>90</v>
+      </c>
+      <c r="S14">
+        <v>37</v>
+      </c>
+      <c r="T14">
+        <v>48</v>
+      </c>
+      <c r="U14">
+        <v>70</v>
+      </c>
+      <c r="V14">
+        <v>84</v>
+      </c>
+      <c r="W14">
+        <v>77</v>
+      </c>
+      <c r="X14">
+        <v>70</v>
+      </c>
+      <c r="Y14">
+        <v>66</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>100</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>6</v>
+      </c>
+      <c r="AM14">
+        <v>6</v>
+      </c>
+      <c r="AN14">
+        <v>6</v>
+      </c>
+      <c r="AO14">
+        <v>6</v>
+      </c>
+      <c r="AP14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15">
+        <v>2972</v>
+      </c>
+      <c r="B15">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>66</v>
+      </c>
+      <c r="J15">
+        <v>63</v>
+      </c>
+      <c r="K15">
+        <v>67</v>
+      </c>
+      <c r="L15">
+        <v>49</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>58</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>22</v>
+      </c>
+      <c r="R15">
+        <v>70</v>
+      </c>
+      <c r="S15">
+        <v>85</v>
+      </c>
+      <c r="T15">
+        <v>77</v>
+      </c>
+      <c r="U15">
+        <v>21</v>
+      </c>
+      <c r="V15">
+        <v>45</v>
+      </c>
+      <c r="W15">
+        <v>37</v>
+      </c>
+      <c r="X15">
+        <v>56</v>
+      </c>
+      <c r="Y15">
+        <v>40</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>100</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>6</v>
+      </c>
+      <c r="AM15">
+        <v>6</v>
+      </c>
+      <c r="AN15">
+        <v>6</v>
+      </c>
+      <c r="AO15">
+        <v>6</v>
+      </c>
+      <c r="AP15">
         <v>6</v>
       </c>
     </row>
@@ -4281,7 +6480,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC9"/>
+  <dimension ref="A1:CC15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4292,10 +6491,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -4307,100 +6506,100 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>49</v>
@@ -4427,109 +6626,109 @@
         <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:81">
@@ -4549,7 +6748,7 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4624,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AF2">
         <v>-1</v>
@@ -4788,10 +6987,10 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4866,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AF3">
         <v>-1</v>
@@ -5030,10 +7229,10 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5108,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AF4">
         <v>-1</v>
@@ -5272,10 +7471,10 @@
         <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5350,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AF5">
         <v>-1</v>
@@ -5514,10 +7713,10 @@
         <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5592,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AF6">
         <v>-1</v>
@@ -5756,10 +7955,10 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5834,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AF7">
         <v>-1</v>
@@ -5998,10 +8197,10 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -6076,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AF8">
         <v>-1</v>
@@ -6243,7 +8442,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -6317,8 +8516,8 @@
       <c r="AD9">
         <v>0</v>
       </c>
-      <c r="AE9" s="2">
-        <v>0</v>
+      <c r="AE9" t="s">
+        <v>252</v>
       </c>
       <c r="AF9">
         <v>-1</v>
@@ -6465,6 +8664,1458 @@
         <v>0</v>
       </c>
       <c r="CC9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81">
+      <c r="A10">
+        <v>2658</v>
+      </c>
+      <c r="B10">
+        <v>112</v>
+      </c>
+      <c r="C10">
+        <v>2969</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>44429</v>
+      </c>
+      <c r="AB10">
+        <v>52</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF10">
+        <v>-1</v>
+      </c>
+      <c r="AG10">
+        <v>-1</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>200</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>2</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81">
+      <c r="A11">
+        <v>2658</v>
+      </c>
+      <c r="B11">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>2969</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>40408</v>
+      </c>
+      <c r="AB11">
+        <v>248</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF11">
+        <v>-1</v>
+      </c>
+      <c r="AG11">
+        <v>-1</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>200</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81">
+      <c r="A12">
+        <v>2659</v>
+      </c>
+      <c r="B12">
+        <v>103</v>
+      </c>
+      <c r="C12">
+        <v>2970</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>43679</v>
+      </c>
+      <c r="AB12">
+        <v>297</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF12">
+        <v>-1</v>
+      </c>
+      <c r="AG12">
+        <v>-1</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>200</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>3</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81">
+      <c r="A13">
+        <v>2660</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>2971</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>40215</v>
+      </c>
+      <c r="AB13">
+        <v>88</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF13">
+        <v>-1</v>
+      </c>
+      <c r="AG13">
+        <v>-1</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>4</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>200</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81">
+      <c r="A14">
+        <v>2660</v>
+      </c>
+      <c r="B14">
+        <v>106</v>
+      </c>
+      <c r="C14">
+        <v>2971</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>41755</v>
+      </c>
+      <c r="AB14">
+        <v>238</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF14">
+        <v>-1</v>
+      </c>
+      <c r="AG14">
+        <v>-1</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>3</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>200</v>
+      </c>
+      <c r="AW14">
+        <v>6</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81">
+      <c r="A15">
+        <v>2661</v>
+      </c>
+      <c r="B15">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>2972</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>43674</v>
+      </c>
+      <c r="AB15">
+        <v>237</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>-1</v>
+      </c>
+      <c r="AG15">
+        <v>-1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>200</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6475,7 +10126,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6486,28 +10137,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -6518,25 +10169,25 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -6550,25 +10201,25 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -6582,25 +10233,25 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -6614,25 +10265,25 @@
         <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -6646,25 +10297,25 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -6678,25 +10329,25 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -6710,25 +10361,25 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -6742,31 +10393,223 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="J9">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>292</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="289">
   <si>
     <t>UID</t>
   </si>
@@ -224,187 +224,43 @@
     <t>CareerGoal</t>
   </si>
   <si>
-    <t>Mustachio</t>
-  </si>
-  <si>
-    <t>Mustafa Godafa</t>
-  </si>
-  <si>
-    <t>Tiger Mask</t>
-  </si>
-  <si>
-    <t>Mr Bubba</t>
-  </si>
-  <si>
-    <t>John Fred</t>
-  </si>
-  <si>
-    <t>Fred John</t>
-  </si>
-  <si>
-    <t>John John</t>
-  </si>
-  <si>
-    <t>Tigerio</t>
-  </si>
-  <si>
-    <t>Bark Browman</t>
-  </si>
-  <si>
-    <t>Bron Browman</t>
-  </si>
-  <si>
-    <t>Mexico Man</t>
-  </si>
-  <si>
-    <t>Mexico Superstar</t>
-  </si>
-  <si>
-    <t>Maple Man</t>
-  </si>
-  <si>
-    <t>Mustafa</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Bark</t>
-  </si>
-  <si>
-    <t>Bron</t>
-  </si>
-  <si>
-    <t>Maple</t>
+    <t>Bo Belly</t>
+  </si>
+  <si>
+    <t>Adler</t>
+  </si>
+  <si>
+    <t>Adler II</t>
+  </si>
+  <si>
+    <t>Bo</t>
   </si>
   <si>
     <t>1666-01-01</t>
   </si>
   <si>
-    <t>mustachio.jpg</t>
-  </si>
-  <si>
-    <t>mustafagodafa.jpg</t>
-  </si>
-  <si>
-    <t>tigermask.jpg</t>
-  </si>
-  <si>
-    <t>mrbubba.jpg</t>
-  </si>
-  <si>
-    <t>johnfred.jpg</t>
-  </si>
-  <si>
-    <t>fredjohn.jpg</t>
-  </si>
-  <si>
-    <t>johnjohn.jpg</t>
-  </si>
-  <si>
-    <t>tigerio.jpg</t>
-  </si>
-  <si>
-    <t>barkbrowman.jpg</t>
-  </si>
-  <si>
-    <t>bronbrowman.jpg</t>
-  </si>
-  <si>
-    <t>mexicoman.jpg</t>
-  </si>
-  <si>
-    <t>mexicosuperstar.jpg</t>
-  </si>
-  <si>
-    <t>mapleman.jpg</t>
-  </si>
-  <si>
-    <t>Mustachio is a charismatic and</t>
-  </si>
-  <si>
-    <t>Gimmick: Mustafa Godafa is a c</t>
-  </si>
-  <si>
-    <t>Roaring Tiger</t>
-  </si>
-  <si>
-    <t>Bunny Brawler</t>
-  </si>
-  <si>
-    <t>Cage Fighter</t>
-  </si>
-  <si>
-    <t>"The Submission Specialist"</t>
-  </si>
-  <si>
-    <t>The Patriotizer.</t>
-  </si>
-  <si>
-    <t>"The International Hero"</t>
-  </si>
-  <si>
-    <t>Luchador Hero</t>
-  </si>
-  <si>
-    <t>Mexican Hero</t>
-  </si>
-  <si>
-    <t>Lucha Libre Hero.</t>
-  </si>
-  <si>
-    <t>Patriotic Canadian</t>
-  </si>
-  <si>
-    <t>Gimmick: Mustachio, the Sultan</t>
-  </si>
-  <si>
-    <t>Gimmick: The Sultan of Smackdo</t>
-  </si>
-  <si>
-    <t>Sneaky Saboteur</t>
-  </si>
-  <si>
-    <t>Bunny Villain</t>
-  </si>
-  <si>
-    <t>The Pitbull</t>
-  </si>
-  <si>
-    <t>The Cage Fighter</t>
-  </si>
-  <si>
-    <t>Pit Fighter</t>
-  </si>
-  <si>
-    <t>Savage Tiger</t>
-  </si>
-  <si>
-    <t>"The American Outlaw"</t>
-  </si>
-  <si>
-    <t>"The Bollywood Bad Boy"</t>
-  </si>
-  <si>
-    <t>Lucha Libre Legend</t>
-  </si>
-  <si>
-    <t>Arrogant and flamboyant</t>
-  </si>
-  <si>
-    <t>Nationalist villain</t>
-  </si>
-  <si>
-    <t>Nationalistic villain</t>
+    <t>bobelly.jpg</t>
+  </si>
+  <si>
+    <t>adler.jpg</t>
+  </si>
+  <si>
+    <t>adlerii.jpg</t>
+  </si>
+  <si>
+    <t>"The Fair Play Captain"</t>
+  </si>
+  <si>
+    <t>Wise Veteran</t>
+  </si>
+  <si>
+    <t>"Veteran referee"</t>
+  </si>
+  <si>
+    <t>Scheming Manager</t>
+  </si>
+  <si>
+    <t>Corrupt referee</t>
   </si>
   <si>
     <t>Bio</t>
@@ -502,6 +358,24 @@
 As Maple Man continues to dominate the wrestling scene in Canada and India, fans around the world are starting to take notice of this rising star. With his talent, drive, and undeniable charisma, Maple Man is poised to become a global sensation in the world of professional wrestling.</t>
   </si>
   <si>
+    <t>Born in a small town in the Midwest, Bo Belly always had a passion for the world of professional wrestling. Starting out as a referee in local promotions, Bo quickly made a name for himself with his sharp eye and unwavering commitment to fairness in the ring.
+After years of officiating matches, Bo Belly decided to hang up his stripes and transition into a new role as a manager for up-and-coming wrestlers. With his wealth of knowledge and experience in the industry, Bo quickly became a trusted advisor and mentor to many aspiring athletes.
+Despite never actually stepping into the ring himself, Bo Belly has earned a reputation as a force to be reckoned with in the world of professional wrestling. His knack for strategy and ability to read his opponents make him a formidable presence ringside.
+Known for his witty banter and quick thinking, Bo Belly has carved out a niche for himself as a manager who always has his wrestler's best interests at heart. With his old-school charm and keen eye for talent, Bo Belly continues to be a guiding force in the world of professional wrestling.</t>
+  </si>
+  <si>
+    <t>Adler, the seasoned veteran of the wrestling world, is known for his remarkable career as a professional wrestler and referee. With years of experience under his belt, Adler has gained a wealth of knowledge and expertise in the ring.
+Starting out as a wrestler in his early years, Adler quickly caught the eye of fans and fellow wrestlers alike with his unique and innovative wrestling style that he dubbed "Interpret." This style combines elements of technical proficiency, high-flying acrobatics, and strategic mind games, keeping opponents on their toes and fans on the edge of their seats.
+After a successful career in the ring, Adler transitioned to become a referee, where he brought his keen eye for detail and fair judgment to officiating matches. His reputation for being a fair and impartial referee has earned him the respect and admiration of both wrestlers and fans alike.
+Despite his age, Adler continues to bring his passion and dedication to the world of professional wrestling, serving as a mentor to younger talent and a role model for aspiring wrestlers. With a career that has stood the test of time, Adler remains a beloved figure in the wrestling community, leaving a lasting legacy that will be remembered for years to come.</t>
+  </si>
+  <si>
+    <t>Adler II, the veteran of the wrestling world, has been a fixture in the ring for decades. Despite his age, he continues to command respect and admiration with his vast knowledge and experience. 
+Starting off as a young wrestler, Adler II quickly made a name for himself with his unique wrestling style, which he aptly describes as "Interpret". This style involves adapting to his opponent's movements and strategies, always staying one step ahead in the ring. 
+However, it was as a referee where Adler II truly shined. His keen eye for detail and fair judgment made him a highly respected figure in the wrestling community. Wrestlers trusted him to uphold the rules and ensure a fair fight, while fans knew they could count on him for a match that kept them on the edge of their seats. 
+Throughout his career, Adler II has faced countless challenges and opponents, but his determination and perseverance have always seen him through. With a legacy that spans generations, Adler II's impact on the wrestling world will never be forgotten.</t>
+  </si>
+  <si>
     <t>WorkerUID</t>
   </si>
   <si>
@@ -826,6 +700,108 @@
     <t>PlasterCaster_Bool25</t>
   </si>
   <si>
+    <t>Mustachio</t>
+  </si>
+  <si>
+    <t>Mustafa Godafa</t>
+  </si>
+  <si>
+    <t>Tiger Mask</t>
+  </si>
+  <si>
+    <t>Mr Bubba</t>
+  </si>
+  <si>
+    <t>John Fred</t>
+  </si>
+  <si>
+    <t>Fred John</t>
+  </si>
+  <si>
+    <t>John John</t>
+  </si>
+  <si>
+    <t>Tigerio</t>
+  </si>
+  <si>
+    <t>Bark Browman</t>
+  </si>
+  <si>
+    <t>Bron Browman</t>
+  </si>
+  <si>
+    <t>Mexico Man</t>
+  </si>
+  <si>
+    <t>Mexico Superstar</t>
+  </si>
+  <si>
+    <t>Maple Man</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Bark</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>mustachio.jpg</t>
+  </si>
+  <si>
+    <t>mustafagodafa.jpg</t>
+  </si>
+  <si>
+    <t>tigermask.jpg</t>
+  </si>
+  <si>
+    <t>mrbubba.jpg</t>
+  </si>
+  <si>
+    <t>johnfred.jpg</t>
+  </si>
+  <si>
+    <t>fredjohn.jpg</t>
+  </si>
+  <si>
+    <t>johnjohn.jpg</t>
+  </si>
+  <si>
+    <t>tigerio.jpg</t>
+  </si>
+  <si>
+    <t>barkbrowman.jpg</t>
+  </si>
+  <si>
+    <t>bronbrowman.jpg</t>
+  </si>
+  <si>
+    <t>mexicoman.jpg</t>
+  </si>
+  <si>
+    <t>mexicosuperstar.jpg</t>
+  </si>
+  <si>
+    <t>mapleman.jpg</t>
+  </si>
+  <si>
     <t>00:00:00</t>
   </si>
   <si>
@@ -889,6 +865,15 @@
     <t>A man extremely popular in Canada and India, but nowhere else.</t>
   </si>
   <si>
+    <t>Referee turned manager, this non wrestler is an oldie at heart.</t>
+  </si>
+  <si>
+    <t>A very old referee</t>
+  </si>
+  <si>
+    <t>A very old Referee</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -950,6 +935,15 @@
   </si>
   <si>
     <t>Maple Man is a towering Pacific Islander wrestler with a powerful build, standing at 6'6", and recognizable for his intricate Maori tribal tattoos that cover his arms and chest.</t>
+  </si>
+  <si>
+    <t>Bo Belly is a tall, rotund Caucasian man with greying hair and a distinct paunch, exuding an air of wisdom and experience.</t>
+  </si>
+  <si>
+    <t>Adler is a tall and lanky Caucasian male with a weathered face and gray hair, exhibiting the classic appearance of a seasoned and experienced referee.</t>
+  </si>
+  <si>
+    <t>Adler II is a tall and slender elderly man with a bald head and a long, flowing white beard, exuding an air of wisdom and experience.</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1519,7 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2">
-        <v>2961</v>
+        <v>2973</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1540,7 +1534,7 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1558,37 +1552,37 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>20550</v>
+        <v>20735</v>
       </c>
       <c r="M2" s="2">
-        <v>37518</v>
+        <v>29965</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="R2">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="S2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1609,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1648,22 +1642,22 @@
         <v>4</v>
       </c>
       <c r="AP2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV2">
         <v>1</v>
@@ -1672,25 +1666,25 @@
         <v>0</v>
       </c>
       <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
         <v>-1</v>
       </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
       <c r="BD2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1714,13 +1708,13 @@
         <v>-1</v>
       </c>
       <c r="BL2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="BM2">
         <v>1</v>
       </c>
       <c r="BN2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="BO2">
         <v>1</v>
@@ -1731,7 +1725,7 @@
     </row>
     <row r="3" spans="1:68">
       <c r="A3">
-        <v>2962</v>
+        <v>2974</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1746,7 +1740,7 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1764,37 +1758,37 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>28159</v>
+        <v>33037</v>
       </c>
       <c r="M3" s="2">
-        <v>34415</v>
+        <v>43340</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q3">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="R3">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="S3">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="T3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -1815,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1851,25 +1845,25 @@
         <v>-1</v>
       </c>
       <c r="AO3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV3">
         <v>1</v>
@@ -1878,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -1920,13 +1914,13 @@
         <v>-1</v>
       </c>
       <c r="BL3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="BM3">
         <v>1</v>
       </c>
       <c r="BN3" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="BO3">
         <v>1</v>
@@ -1937,7 +1931,7 @@
     </row>
     <row r="4" spans="1:68">
       <c r="A4">
-        <v>2963</v>
+        <v>2975</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1952,7 +1946,7 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1970,31 +1964,31 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>29026</v>
+        <v>27068</v>
       </c>
       <c r="M4" s="2">
-        <v>42388</v>
+        <v>32955</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="O4">
         <v>7</v>
       </c>
       <c r="P4">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Q4">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="R4">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="S4">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="T4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -2021,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -2057,25 +2051,25 @@
         <v>-1</v>
       </c>
       <c r="AO4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV4">
         <v>1</v>
@@ -2090,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2126,2284 +2120,18 @@
         <v>-1</v>
       </c>
       <c r="BL4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BM4">
         <v>1</v>
       </c>
       <c r="BN4" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="BO4">
         <v>1</v>
       </c>
       <c r="BP4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:68">
-      <c r="A5">
-        <v>2964</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>32116</v>
-      </c>
-      <c r="M5" s="2">
-        <v>39448</v>
-      </c>
-      <c r="N5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>25</v>
-      </c>
-      <c r="Q5">
-        <v>262</v>
-      </c>
-      <c r="R5">
-        <v>242</v>
-      </c>
-      <c r="S5">
-        <v>296</v>
-      </c>
-      <c r="T5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>9</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>6</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-1</v>
-      </c>
-      <c r="AH5">
-        <v>-1</v>
-      </c>
-      <c r="AI5">
-        <v>-1</v>
-      </c>
-      <c r="AJ5">
-        <v>-1</v>
-      </c>
-      <c r="AK5">
-        <v>-1</v>
-      </c>
-      <c r="AL5">
-        <v>-1</v>
-      </c>
-      <c r="AM5">
-        <v>-1</v>
-      </c>
-      <c r="AN5">
-        <v>-1</v>
-      </c>
-      <c r="AO5">
-        <v>4</v>
-      </c>
-      <c r="AP5">
-        <v>4</v>
-      </c>
-      <c r="AQ5">
-        <v>4</v>
-      </c>
-      <c r="AR5">
-        <v>4</v>
-      </c>
-      <c r="AS5">
-        <v>4</v>
-      </c>
-      <c r="AT5">
-        <v>4</v>
-      </c>
-      <c r="AU5">
-        <v>4</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>-1</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>-1</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>118</v>
-      </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:68">
-      <c r="A6">
-        <v>2965</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>15307</v>
-      </c>
-      <c r="M6" s="2">
-        <v>30928</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>27</v>
-      </c>
-      <c r="Q6">
-        <v>227</v>
-      </c>
-      <c r="R6">
-        <v>207</v>
-      </c>
-      <c r="S6">
-        <v>255</v>
-      </c>
-      <c r="T6" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>-1</v>
-      </c>
-      <c r="AH6">
-        <v>-1</v>
-      </c>
-      <c r="AI6">
-        <v>-1</v>
-      </c>
-      <c r="AJ6">
-        <v>-1</v>
-      </c>
-      <c r="AK6">
-        <v>-1</v>
-      </c>
-      <c r="AL6">
-        <v>-1</v>
-      </c>
-      <c r="AM6">
-        <v>-1</v>
-      </c>
-      <c r="AN6">
-        <v>-1</v>
-      </c>
-      <c r="AO6">
-        <v>4</v>
-      </c>
-      <c r="AP6">
-        <v>4</v>
-      </c>
-      <c r="AQ6">
-        <v>4</v>
-      </c>
-      <c r="AR6">
-        <v>4</v>
-      </c>
-      <c r="AS6">
-        <v>4</v>
-      </c>
-      <c r="AT6">
-        <v>4</v>
-      </c>
-      <c r="AU6">
-        <v>4</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>-1</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>-1</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM6">
-        <v>1</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>119</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:68">
-      <c r="A7">
-        <v>2966</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>14338</v>
-      </c>
-      <c r="M7" s="2">
-        <v>31990</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>41</v>
-      </c>
-      <c r="Q7">
-        <v>350</v>
-      </c>
-      <c r="R7">
-        <v>330</v>
-      </c>
-      <c r="S7">
-        <v>373</v>
-      </c>
-      <c r="T7" t="s">
-        <v>95</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>-1</v>
-      </c>
-      <c r="AH7">
-        <v>-1</v>
-      </c>
-      <c r="AI7">
-        <v>-1</v>
-      </c>
-      <c r="AJ7">
-        <v>-1</v>
-      </c>
-      <c r="AK7">
-        <v>-1</v>
-      </c>
-      <c r="AL7">
-        <v>-1</v>
-      </c>
-      <c r="AM7">
-        <v>-1</v>
-      </c>
-      <c r="AN7">
-        <v>-1</v>
-      </c>
-      <c r="AO7">
-        <v>4</v>
-      </c>
-      <c r="AP7">
-        <v>4</v>
-      </c>
-      <c r="AQ7">
-        <v>4</v>
-      </c>
-      <c r="AR7">
-        <v>4</v>
-      </c>
-      <c r="AS7">
-        <v>4</v>
-      </c>
-      <c r="AT7">
-        <v>4</v>
-      </c>
-      <c r="AU7">
-        <v>4</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>-1</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>-1</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM7">
-        <v>1</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO7">
-        <v>1</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:68">
-      <c r="A8">
-        <v>2967</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>14898</v>
-      </c>
-      <c r="M8" s="2">
-        <v>30024</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>29</v>
-      </c>
-      <c r="Q8">
-        <v>305</v>
-      </c>
-      <c r="R8">
-        <v>285</v>
-      </c>
-      <c r="S8">
-        <v>335</v>
-      </c>
-      <c r="T8" t="s">
-        <v>96</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>-1</v>
-      </c>
-      <c r="AH8">
-        <v>-1</v>
-      </c>
-      <c r="AI8">
-        <v>-1</v>
-      </c>
-      <c r="AJ8">
-        <v>-1</v>
-      </c>
-      <c r="AK8">
-        <v>-1</v>
-      </c>
-      <c r="AL8">
-        <v>-1</v>
-      </c>
-      <c r="AM8">
-        <v>-1</v>
-      </c>
-      <c r="AN8">
-        <v>-1</v>
-      </c>
-      <c r="AO8">
-        <v>4</v>
-      </c>
-      <c r="AP8">
-        <v>4</v>
-      </c>
-      <c r="AQ8">
-        <v>4</v>
-      </c>
-      <c r="AR8">
-        <v>4</v>
-      </c>
-      <c r="AS8">
-        <v>4</v>
-      </c>
-      <c r="AT8">
-        <v>4</v>
-      </c>
-      <c r="AU8">
-        <v>4</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>-1</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>-1</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM8">
-        <v>1</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO8">
-        <v>1</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:68">
-      <c r="A9">
-        <v>2968</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>18482</v>
-      </c>
-      <c r="M9" s="2">
-        <v>31762</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>42</v>
-      </c>
-      <c r="Q9">
-        <v>236</v>
-      </c>
-      <c r="R9">
-        <v>216</v>
-      </c>
-      <c r="S9">
-        <v>263</v>
-      </c>
-      <c r="T9" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>4</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>10</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>-1</v>
-      </c>
-      <c r="AH9">
-        <v>-1</v>
-      </c>
-      <c r="AI9">
-        <v>-1</v>
-      </c>
-      <c r="AJ9">
-        <v>-1</v>
-      </c>
-      <c r="AK9">
-        <v>-1</v>
-      </c>
-      <c r="AL9">
-        <v>-1</v>
-      </c>
-      <c r="AM9">
-        <v>-1</v>
-      </c>
-      <c r="AN9">
-        <v>-1</v>
-      </c>
-      <c r="AO9">
-        <v>4</v>
-      </c>
-      <c r="AP9">
-        <v>4</v>
-      </c>
-      <c r="AQ9">
-        <v>4</v>
-      </c>
-      <c r="AR9">
-        <v>4</v>
-      </c>
-      <c r="AS9">
-        <v>4</v>
-      </c>
-      <c r="AT9">
-        <v>4</v>
-      </c>
-      <c r="AU9">
-        <v>4</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>-1</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>-1</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM9">
-        <v>1</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>122</v>
-      </c>
-      <c r="BO9">
-        <v>1</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:68">
-      <c r="A10">
-        <v>2969</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>22703</v>
-      </c>
-      <c r="M10" s="2">
-        <v>38946</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10">
-        <v>7</v>
-      </c>
-      <c r="P10">
-        <v>22</v>
-      </c>
-      <c r="Q10">
-        <v>200</v>
-      </c>
-      <c r="R10">
-        <v>180</v>
-      </c>
-      <c r="S10">
-        <v>239</v>
-      </c>
-      <c r="T10" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>5</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>-1</v>
-      </c>
-      <c r="AH10">
-        <v>-1</v>
-      </c>
-      <c r="AI10">
-        <v>-1</v>
-      </c>
-      <c r="AJ10">
-        <v>-1</v>
-      </c>
-      <c r="AK10">
-        <v>-1</v>
-      </c>
-      <c r="AL10">
-        <v>-1</v>
-      </c>
-      <c r="AM10">
-        <v>-1</v>
-      </c>
-      <c r="AN10">
-        <v>-1</v>
-      </c>
-      <c r="AO10">
-        <v>4</v>
-      </c>
-      <c r="AP10">
-        <v>4</v>
-      </c>
-      <c r="AQ10">
-        <v>4</v>
-      </c>
-      <c r="AR10">
-        <v>4</v>
-      </c>
-      <c r="AS10">
-        <v>4</v>
-      </c>
-      <c r="AT10">
-        <v>4</v>
-      </c>
-      <c r="AU10">
-        <v>4</v>
-      </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>-1</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>-1</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM10">
-        <v>1</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>123</v>
-      </c>
-      <c r="BO10">
-        <v>1</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:68">
-      <c r="A11">
-        <v>2969</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>20754</v>
-      </c>
-      <c r="M11" s="2">
-        <v>29377</v>
-      </c>
-      <c r="N11" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>26</v>
-      </c>
-      <c r="Q11">
-        <v>323</v>
-      </c>
-      <c r="R11">
-        <v>303</v>
-      </c>
-      <c r="S11">
-        <v>348</v>
-      </c>
-      <c r="T11" t="s">
-        <v>99</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>7</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>11</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>-1</v>
-      </c>
-      <c r="AH11">
-        <v>-1</v>
-      </c>
-      <c r="AI11">
-        <v>-1</v>
-      </c>
-      <c r="AJ11">
-        <v>-1</v>
-      </c>
-      <c r="AK11">
-        <v>-1</v>
-      </c>
-      <c r="AL11">
-        <v>-1</v>
-      </c>
-      <c r="AM11">
-        <v>-1</v>
-      </c>
-      <c r="AN11">
-        <v>-1</v>
-      </c>
-      <c r="AO11">
-        <v>4</v>
-      </c>
-      <c r="AP11">
-        <v>4</v>
-      </c>
-      <c r="AQ11">
-        <v>4</v>
-      </c>
-      <c r="AR11">
-        <v>4</v>
-      </c>
-      <c r="AS11">
-        <v>4</v>
-      </c>
-      <c r="AT11">
-        <v>4</v>
-      </c>
-      <c r="AU11">
-        <v>4</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>-1</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>-1</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM11">
-        <v>1</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO11">
-        <v>1</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:68">
-      <c r="A12">
-        <v>2970</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>15841</v>
-      </c>
-      <c r="M12" s="2">
-        <v>30787</v>
-      </c>
-      <c r="N12" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>21</v>
-      </c>
-      <c r="Q12">
-        <v>248</v>
-      </c>
-      <c r="R12">
-        <v>228</v>
-      </c>
-      <c r="S12">
-        <v>290</v>
-      </c>
-      <c r="T12" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>1</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>-1</v>
-      </c>
-      <c r="AH12">
-        <v>-1</v>
-      </c>
-      <c r="AI12">
-        <v>-1</v>
-      </c>
-      <c r="AJ12">
-        <v>-1</v>
-      </c>
-      <c r="AK12">
-        <v>-1</v>
-      </c>
-      <c r="AL12">
-        <v>-1</v>
-      </c>
-      <c r="AM12">
-        <v>-1</v>
-      </c>
-      <c r="AN12">
-        <v>-1</v>
-      </c>
-      <c r="AO12">
-        <v>4</v>
-      </c>
-      <c r="AP12">
-        <v>4</v>
-      </c>
-      <c r="AQ12">
-        <v>4</v>
-      </c>
-      <c r="AR12">
-        <v>4</v>
-      </c>
-      <c r="AS12">
-        <v>4</v>
-      </c>
-      <c r="AT12">
-        <v>4</v>
-      </c>
-      <c r="AU12">
-        <v>4</v>
-      </c>
-      <c r="AV12">
-        <v>1</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>-1</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>-1</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM12">
-        <v>1</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>125</v>
-      </c>
-      <c r="BO12">
-        <v>1</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:68">
-      <c r="A13">
-        <v>2971</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>15876</v>
-      </c>
-      <c r="M13" s="2">
-        <v>31434</v>
-      </c>
-      <c r="N13" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>32</v>
-      </c>
-      <c r="Q13">
-        <v>279</v>
-      </c>
-      <c r="R13">
-        <v>259</v>
-      </c>
-      <c r="S13">
-        <v>323</v>
-      </c>
-      <c r="T13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>4</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>-1</v>
-      </c>
-      <c r="AH13">
-        <v>-1</v>
-      </c>
-      <c r="AI13">
-        <v>-1</v>
-      </c>
-      <c r="AJ13">
-        <v>-1</v>
-      </c>
-      <c r="AK13">
-        <v>-1</v>
-      </c>
-      <c r="AL13">
-        <v>-1</v>
-      </c>
-      <c r="AM13">
-        <v>-1</v>
-      </c>
-      <c r="AN13">
-        <v>-1</v>
-      </c>
-      <c r="AO13">
-        <v>4</v>
-      </c>
-      <c r="AP13">
-        <v>4</v>
-      </c>
-      <c r="AQ13">
-        <v>4</v>
-      </c>
-      <c r="AR13">
-        <v>4</v>
-      </c>
-      <c r="AS13">
-        <v>4</v>
-      </c>
-      <c r="AT13">
-        <v>4</v>
-      </c>
-      <c r="AU13">
-        <v>4</v>
-      </c>
-      <c r="AV13">
-        <v>1</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>-1</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>-1</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM13">
-        <v>1</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>126</v>
-      </c>
-      <c r="BO13">
-        <v>1</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:68">
-      <c r="A14">
-        <v>2971</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>21937</v>
-      </c>
-      <c r="M14" s="2">
-        <v>39533</v>
-      </c>
-      <c r="N14" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>28</v>
-      </c>
-      <c r="Q14">
-        <v>211</v>
-      </c>
-      <c r="R14">
-        <v>191</v>
-      </c>
-      <c r="S14">
-        <v>260</v>
-      </c>
-      <c r="T14" t="s">
-        <v>101</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>9</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>-1</v>
-      </c>
-      <c r="AH14">
-        <v>-1</v>
-      </c>
-      <c r="AI14">
-        <v>-1</v>
-      </c>
-      <c r="AJ14">
-        <v>-1</v>
-      </c>
-      <c r="AK14">
-        <v>-1</v>
-      </c>
-      <c r="AL14">
-        <v>-1</v>
-      </c>
-      <c r="AM14">
-        <v>-1</v>
-      </c>
-      <c r="AN14">
-        <v>-1</v>
-      </c>
-      <c r="AO14">
-        <v>4</v>
-      </c>
-      <c r="AP14">
-        <v>4</v>
-      </c>
-      <c r="AQ14">
-        <v>4</v>
-      </c>
-      <c r="AR14">
-        <v>4</v>
-      </c>
-      <c r="AS14">
-        <v>4</v>
-      </c>
-      <c r="AT14">
-        <v>4</v>
-      </c>
-      <c r="AU14">
-        <v>4</v>
-      </c>
-      <c r="AV14">
-        <v>1</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>-1</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>-1</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM14">
-        <v>1</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO14">
-        <v>1</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:68">
-      <c r="A15">
-        <v>2972</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>30130</v>
-      </c>
-      <c r="M15" s="2">
-        <v>43588</v>
-      </c>
-      <c r="N15" t="s">
-        <v>89</v>
-      </c>
-      <c r="O15">
-        <v>7</v>
-      </c>
-      <c r="P15">
-        <v>30</v>
-      </c>
-      <c r="Q15">
-        <v>194</v>
-      </c>
-      <c r="R15">
-        <v>174</v>
-      </c>
-      <c r="S15">
-        <v>217</v>
-      </c>
-      <c r="T15" t="s">
-        <v>102</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>7</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>-1</v>
-      </c>
-      <c r="AH15">
-        <v>-1</v>
-      </c>
-      <c r="AI15">
-        <v>-1</v>
-      </c>
-      <c r="AJ15">
-        <v>-1</v>
-      </c>
-      <c r="AK15">
-        <v>-1</v>
-      </c>
-      <c r="AL15">
-        <v>-1</v>
-      </c>
-      <c r="AM15">
-        <v>-1</v>
-      </c>
-      <c r="AN15">
-        <v>-1</v>
-      </c>
-      <c r="AO15">
-        <v>4</v>
-      </c>
-      <c r="AP15">
-        <v>4</v>
-      </c>
-      <c r="AQ15">
-        <v>4</v>
-      </c>
-      <c r="AR15">
-        <v>4</v>
-      </c>
-      <c r="AS15">
-        <v>4</v>
-      </c>
-      <c r="AT15">
-        <v>4</v>
-      </c>
-      <c r="AU15">
-        <v>4</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>-1</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>0</v>
-      </c>
-      <c r="BK15">
-        <v>-1</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM15">
-        <v>1</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO15">
-        <v>1</v>
-      </c>
-      <c r="BP15">
         <v>0</v>
       </c>
     </row>
@@ -4414,7 +2142,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4425,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4433,7 +2161,7 @@
         <v>2961</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4441,7 +2169,7 @@
         <v>2962</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4449,7 +2177,7 @@
         <v>2963</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4457,7 +2185,7 @@
         <v>2964</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4465,7 +2193,7 @@
         <v>2965</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4473,7 +2201,7 @@
         <v>2966</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4481,7 +2209,7 @@
         <v>2967</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4489,7 +2217,7 @@
         <v>2968</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4497,7 +2225,7 @@
         <v>2969</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4505,7 +2233,7 @@
         <v>2969</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4513,7 +2241,7 @@
         <v>2970</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4521,7 +2249,7 @@
         <v>2971</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4529,7 +2257,7 @@
         <v>2971</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4537,7 +2265,31 @@
         <v>2972</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>2973</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>2974</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>2975</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4547,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4555,130 +2307,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -6470,6 +4222,390 @@
         <v>6</v>
       </c>
       <c r="AP15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16">
+        <v>2973</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>81</v>
+      </c>
+      <c r="G16">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>58</v>
+      </c>
+      <c r="J16">
+        <v>57</v>
+      </c>
+      <c r="K16">
+        <v>46</v>
+      </c>
+      <c r="L16">
+        <v>61</v>
+      </c>
+      <c r="M16">
+        <v>73</v>
+      </c>
+      <c r="N16">
+        <v>54</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>87</v>
+      </c>
+      <c r="R16">
+        <v>22</v>
+      </c>
+      <c r="S16">
+        <v>41</v>
+      </c>
+      <c r="T16">
+        <v>84</v>
+      </c>
+      <c r="U16">
+        <v>89</v>
+      </c>
+      <c r="V16">
+        <v>35</v>
+      </c>
+      <c r="W16">
+        <v>39</v>
+      </c>
+      <c r="X16">
+        <v>55</v>
+      </c>
+      <c r="Y16">
+        <v>51</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>100</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>6</v>
+      </c>
+      <c r="AM16">
+        <v>6</v>
+      </c>
+      <c r="AN16">
+        <v>6</v>
+      </c>
+      <c r="AO16">
+        <v>6</v>
+      </c>
+      <c r="AP16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17">
+        <v>2974</v>
+      </c>
+      <c r="B17">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>69</v>
+      </c>
+      <c r="F17">
+        <v>83</v>
+      </c>
+      <c r="G17">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>59</v>
+      </c>
+      <c r="J17">
+        <v>58</v>
+      </c>
+      <c r="K17">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>79</v>
+      </c>
+      <c r="M17">
+        <v>51</v>
+      </c>
+      <c r="N17">
+        <v>54</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>85</v>
+      </c>
+      <c r="R17">
+        <v>61</v>
+      </c>
+      <c r="S17">
+        <v>58</v>
+      </c>
+      <c r="T17">
+        <v>90</v>
+      </c>
+      <c r="U17">
+        <v>44</v>
+      </c>
+      <c r="V17">
+        <v>77</v>
+      </c>
+      <c r="W17">
+        <v>76</v>
+      </c>
+      <c r="X17">
+        <v>79</v>
+      </c>
+      <c r="Y17">
+        <v>50</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>100</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>6</v>
+      </c>
+      <c r="AM17">
+        <v>6</v>
+      </c>
+      <c r="AN17">
+        <v>6</v>
+      </c>
+      <c r="AO17">
+        <v>6</v>
+      </c>
+      <c r="AP17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18">
+        <v>2975</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>77</v>
+      </c>
+      <c r="F18">
+        <v>87</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>47</v>
+      </c>
+      <c r="I18">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>49</v>
+      </c>
+      <c r="K18">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>41</v>
+      </c>
+      <c r="M18">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>66</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>46</v>
+      </c>
+      <c r="R18">
+        <v>21</v>
+      </c>
+      <c r="S18">
+        <v>62</v>
+      </c>
+      <c r="T18">
+        <v>29</v>
+      </c>
+      <c r="U18">
+        <v>44</v>
+      </c>
+      <c r="V18">
+        <v>32</v>
+      </c>
+      <c r="W18">
+        <v>57</v>
+      </c>
+      <c r="X18">
+        <v>24</v>
+      </c>
+      <c r="Y18">
+        <v>86</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>100</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>6</v>
+      </c>
+      <c r="AM18">
+        <v>6</v>
+      </c>
+      <c r="AN18">
+        <v>6</v>
+      </c>
+      <c r="AO18">
+        <v>6</v>
+      </c>
+      <c r="AP18">
         <v>6</v>
       </c>
     </row>
@@ -6480,7 +4616,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC15"/>
+  <dimension ref="A1:CC18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6491,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -6506,100 +4642,100 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>49</v>
@@ -6626,109 +4762,109 @@
         <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:81">
@@ -6742,13 +4878,13 @@
         <v>2961</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6823,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF2">
         <v>-1</v>
@@ -6984,13 +5120,13 @@
         <v>2962</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -7065,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF3">
         <v>-1</v>
@@ -7226,13 +5362,13 @@
         <v>2963</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7307,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF4">
         <v>-1</v>
@@ -7468,13 +5604,13 @@
         <v>2964</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7549,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF5">
         <v>-1</v>
@@ -7710,13 +5846,13 @@
         <v>2965</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7791,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF6">
         <v>-1</v>
@@ -7952,13 +6088,13 @@
         <v>2966</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8033,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF7">
         <v>-1</v>
@@ -8194,13 +6330,13 @@
         <v>2967</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -8275,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF8">
         <v>-1</v>
@@ -8436,13 +6572,13 @@
         <v>2968</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8517,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF9">
         <v>-1</v>
@@ -8678,13 +6814,13 @@
         <v>2969</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -8759,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF10">
         <v>-1</v>
@@ -8920,13 +7056,13 @@
         <v>2969</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9001,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF11">
         <v>-1</v>
@@ -9162,13 +7298,13 @@
         <v>2970</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9243,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF12">
         <v>-1</v>
@@ -9404,13 +7540,13 @@
         <v>2971</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -9485,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF13">
         <v>-1</v>
@@ -9646,13 +7782,13 @@
         <v>2971</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9727,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF14">
         <v>-1</v>
@@ -9888,13 +8024,13 @@
         <v>2972</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9968,8 +8104,8 @@
       <c r="AD15">
         <v>0</v>
       </c>
-      <c r="AE15" s="2">
-        <v>0</v>
+      <c r="AE15" t="s">
+        <v>241</v>
       </c>
       <c r="AF15">
         <v>-1</v>
@@ -10116,6 +8252,732 @@
         <v>0</v>
       </c>
       <c r="CC15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81">
+      <c r="A16">
+        <v>2662</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>2973</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>41854</v>
+      </c>
+      <c r="AB16">
+        <v>95</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF16">
+        <v>-1</v>
+      </c>
+      <c r="AG16">
+        <v>-1</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>3</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>200</v>
+      </c>
+      <c r="AW16">
+        <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:81">
+      <c r="A17">
+        <v>2663</v>
+      </c>
+      <c r="B17">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>2974</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>42292</v>
+      </c>
+      <c r="AB17">
+        <v>159</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF17">
+        <v>-1</v>
+      </c>
+      <c r="AG17">
+        <v>-1</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>200</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81">
+      <c r="A18">
+        <v>2664</v>
+      </c>
+      <c r="B18">
+        <v>110</v>
+      </c>
+      <c r="C18">
+        <v>2975</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>44610</v>
+      </c>
+      <c r="AB18">
+        <v>132</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>-1</v>
+      </c>
+      <c r="AG18">
+        <v>-1</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>200</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10126,7 +8988,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10137,28 +8999,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -10166,28 +9028,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -10198,28 +9060,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
         <v>273</v>
-      </c>
-      <c r="D3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" t="s">
-        <v>281</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -10230,28 +9092,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
         <v>274</v>
-      </c>
-      <c r="F4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" t="s">
-        <v>282</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -10262,28 +9124,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="H5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -10294,31 +9156,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -10326,31 +9188,31 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="H7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -10358,31 +9220,31 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
         <v>265</v>
       </c>
-      <c r="C8" t="s">
-        <v>273</v>
-      </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -10390,31 +9252,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" t="s">
         <v>266</v>
       </c>
-      <c r="C9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" t="s">
-        <v>274</v>
-      </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" t="s">
         <v>279</v>
       </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" t="s">
-        <v>287</v>
-      </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -10422,31 +9284,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -10454,31 +9316,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -10486,31 +9348,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -10518,31 +9380,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F13" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="H13" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -10550,31 +9412,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" t="s">
         <v>271</v>
       </c>
-      <c r="C14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" t="s">
-        <v>279</v>
-      </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="H14" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -10582,34 +9444,130 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="H15" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>286</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>287</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="228">
   <si>
     <t>UID</t>
   </si>
@@ -230,12 +230,30 @@
     <t>Monno Mototo</t>
   </si>
   <si>
+    <t>The Joker</t>
+  </si>
+  <si>
+    <t>Steve Bobo</t>
+  </si>
+  <si>
+    <t>Jelly Rolls</t>
+  </si>
+  <si>
     <t>Mono</t>
   </si>
   <si>
     <t>Monno</t>
   </si>
   <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Jelly</t>
+  </si>
+  <si>
     <t>1666-01-01</t>
   </si>
   <si>
@@ -245,16 +263,43 @@
     <t>monnomototo.jpg</t>
   </si>
   <si>
+    <t>thejoker.jpg</t>
+  </si>
+  <si>
+    <t>stevebobo.jpg</t>
+  </si>
+  <si>
+    <t>jellyrolls.jpg</t>
+  </si>
+  <si>
     <t>Cultural Fusion Warrior</t>
   </si>
   <si>
     <t>Luchador referee</t>
   </si>
   <si>
+    <t>Anarchist Clown</t>
+  </si>
+  <si>
+    <t>"The Patriot"</t>
+  </si>
+  <si>
+    <t>"The Sweetheart Giant"</t>
+  </si>
+  <si>
     <t>Japanese Patriarch</t>
   </si>
   <si>
     <t>The Lucha Referee</t>
+  </si>
+  <si>
+    <t>Psychotic prankster</t>
+  </si>
+  <si>
+    <t>"The Bully"</t>
+  </si>
+  <si>
+    <t>"The Gourmet Grappler"</t>
   </si>
   <si>
     <t>Bio</t>
@@ -272,6 +317,27 @@
 While Monno Mototo may not be a household name in the wrestling world outside of Mexico and India, his impact on the sport in these countries is undeniable. With his unique blend of charisma, skill, and larger-than-life personality, Monno Mototo continues to leave a lasting impression on fans everywhere.</t>
   </si>
   <si>
+    <t>The Joker, born and raised in the seedy underbelly of Gotham City, is a professional wrestler like no other. With his signature green hair and eerie grin, he strikes fear into the hearts of his opponents and fans alike. 
+Known for his unpredictable and chaotic in-ring style, The Joker incorporates elements of acrobatics, brawling, and psychological warfare into his matches. He is a master of mind games, often luring his adversaries into traps with his twisted sense of humor and cunning tactics. 
+Despite his villainous persona, The Joker is a skilled athlete and tactician, constantly keeping his opponents on their toes with his unorthodox and unpredictable moves. His performances are like a twisted circus act, with death-defying stunts and jaw-dropping maneuvers that leave audiences in awe. 
+Outside of the ring, The Joker is a mysterious and enigmatic figure, rarely revealing his true intentions or motives. Some say he is driven by a deep-seated desire to prove himself as the ultimate showman, while others believe he is simply a madman seeking chaos and destruction. 
+Regardless of his motivations, one thing is certain – The Joker is a force to be reckoned with in the world of professional wrestling. With his larger-than-life personality and electrifying performances, he continues to captivate audiences and strike fear into the hearts of his rivals. In the ring, he is an enigma. At his core, he is a true master of manipulation and deception. Love him or hate him, The Joker is here to stay, and the world of professional wrestling will never be the same.</t>
+  </si>
+  <si>
+    <t>Steve Bobo is an American professional wrestler known for his unique and versatile wrestling style. Born and raised in the heart of wrestling country, Steve fell in love with the sport at a young age and knew he wanted to make a name for himself in the industry.
+Steve's wrestling style is best described as interpretive, as he is able to adapt to any situation in the ring and come up with innovative moves and strategies on the fly. His agility, strength, and quick thinking have earned him a reputation as one of the most unpredictable and exciting wrestlers to watch.
+Despite facing many challenges and setbacks in his career, Steve has never wavered in his dedication to the sport. He has trained tirelessly, honing his skills and perfecting his craft in order to become the best wrestler he can be.
+In the ring, Steve is a force to be reckoned with. His signature moves and fearless attitude have earned him a legion of loyal fans who eagerly anticipate his every match. Whether he is facing off against a fierce opponent or teaming up with a partner in a tag team match, Steve always brings his A-game and leaves it all on the mat.
+Off the mat, Steve is known for his humility and passion for giving back to the wrestling community. He frequently volunteers at local wrestling schools, sharing his knowledge and expertise with aspiring wrestlers in the hopes of inspiring the next generation of talent.
+With his unmatched skills, dedication, and passion for the sport, Steve Bobo is sure to leave a lasting legacy in the world of professional wrestling.</t>
+  </si>
+  <si>
+    <t>Jelly Rolls, a larger-than-life professional wrestler hailing from the heart of America, is known for his immense size and imposing presence in the ring. Despite his heavy build, Jelly Rolls possesses surprising agility and strength, making him a formidable force to be reckoned with.
+Born and raised in a small town in the Midwest, Jelly Rolls discovered his passion for wrestling at a young age. His signature wrestling style, which he fondly refers to as "Interpret," combines elements of traditional wrestling techniques with his own unique flair and creativity.
+One of Jelly Rolls' most impressive traits is his ability to speak fluent Spanish, a skill he developed over the years through his interactions with fans from all over the world. His bilingualism has helped him connect with a broader audience and has earned him a loyal following in both English and Spanish-speaking wrestling communities.
+Throughout his career, Jelly Rolls has faced off against some of the biggest names in the industry, always giving his all and leaving everything in the ring. With his larger-than-life persona and undeniable charisma, Jelly Rolls continues to captivate audiences wherever he goes, cementing his status as a true wrestling legend.</t>
+  </si>
+  <si>
     <t>WorkerUID</t>
   </si>
   <si>
@@ -623,6 +689,15 @@
     <t>A Mexican man who referees in india. He is extremely obese and speaks Hindi and Spanish fluently, but nothing else. He is extremely popular in Mexico and India, and not known anywhere else at all.</t>
   </si>
   <si>
+    <t>Batman's nemesis, the Joker</t>
+  </si>
+  <si>
+    <t>An american wrestler</t>
+  </si>
+  <si>
+    <t>A very large obese American Wrestler who also speaks Fluent Spanish</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -636,6 +711,15 @@
   </si>
   <si>
     <t>Monno Mototo is a towering, obese Mexican man with a unique blend of Hindi and Spanish fluency, making him a standout figure in the wrestling world.</t>
+  </si>
+  <si>
+    <t>The Joker is a tall, muscular figure with a menacing grin, standing out with his pale skin and green hair, embodying the essence of chaos.</t>
+  </si>
+  <si>
+    <t>Steve Bobo is a tall, muscular Caucasian male wrestler with a chiseled physique and a prominent jawline.</t>
+  </si>
+  <si>
+    <t>Jelly Rolls is a towering, rotund Hispanic wrestler with a larger-than-life presence and the ability to seamlessly switch between English and Spanish.</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1226,7 +1310,7 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1250,7 +1334,7 @@
         <v>40355</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O2">
         <v>5</v>
@@ -1268,7 +1352,7 @@
         <v>350</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -1400,13 +1484,13 @@
         <v>-1</v>
       </c>
       <c r="BL2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="BM2">
         <v>1</v>
       </c>
       <c r="BN2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="BO2">
         <v>1</v>
@@ -1432,7 +1516,7 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1456,7 +1540,7 @@
         <v>43291</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O3">
         <v>7</v>
@@ -1474,7 +1558,7 @@
         <v>350</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1606,18 +1690,636 @@
         <v>-1</v>
       </c>
       <c r="BL3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4">
+        <v>2978</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>31754</v>
+      </c>
+      <c r="M4" s="2">
+        <v>37508</v>
+      </c>
+      <c r="N4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>285</v>
+      </c>
+      <c r="R4">
+        <v>150</v>
+      </c>
+      <c r="S4">
+        <v>350</v>
+      </c>
+      <c r="T4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-1</v>
+      </c>
+      <c r="AH4">
+        <v>-1</v>
+      </c>
+      <c r="AI4">
+        <v>-1</v>
+      </c>
+      <c r="AJ4">
+        <v>-1</v>
+      </c>
+      <c r="AK4">
+        <v>-1</v>
+      </c>
+      <c r="AL4">
+        <v>-1</v>
+      </c>
+      <c r="AM4">
+        <v>-1</v>
+      </c>
+      <c r="AN4">
+        <v>-1</v>
+      </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>2</v>
+      </c>
+      <c r="AR4">
+        <v>2</v>
+      </c>
+      <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>-1</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>-1</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>-1</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5">
+        <v>2979</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
         <v>76</v>
       </c>
-      <c r="BM3">
-        <v>1</v>
-      </c>
-      <c r="BN3" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>34650</v>
+      </c>
+      <c r="M5" s="2">
+        <v>42907</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="BO3">
-        <v>1</v>
-      </c>
-      <c r="BP3">
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>282</v>
+      </c>
+      <c r="R5">
+        <v>150</v>
+      </c>
+      <c r="S5">
+        <v>350</v>
+      </c>
+      <c r="T5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>-1</v>
+      </c>
+      <c r="AH5">
+        <v>-1</v>
+      </c>
+      <c r="AI5">
+        <v>-1</v>
+      </c>
+      <c r="AJ5">
+        <v>-1</v>
+      </c>
+      <c r="AK5">
+        <v>-1</v>
+      </c>
+      <c r="AL5">
+        <v>-1</v>
+      </c>
+      <c r="AM5">
+        <v>-1</v>
+      </c>
+      <c r="AN5">
+        <v>-1</v>
+      </c>
+      <c r="AO5">
+        <v>4</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>2</v>
+      </c>
+      <c r="AR5">
+        <v>2</v>
+      </c>
+      <c r="AS5">
+        <v>2</v>
+      </c>
+      <c r="AT5">
+        <v>2</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>-1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>-1</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6">
+        <v>2980</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>32799</v>
+      </c>
+      <c r="M6" s="2">
+        <v>45157</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>154</v>
+      </c>
+      <c r="R6">
+        <v>150</v>
+      </c>
+      <c r="S6">
+        <v>350</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>-1</v>
+      </c>
+      <c r="AH6">
+        <v>-1</v>
+      </c>
+      <c r="AI6">
+        <v>-1</v>
+      </c>
+      <c r="AJ6">
+        <v>-1</v>
+      </c>
+      <c r="AK6">
+        <v>-1</v>
+      </c>
+      <c r="AL6">
+        <v>-1</v>
+      </c>
+      <c r="AM6">
+        <v>-1</v>
+      </c>
+      <c r="AN6">
+        <v>-1</v>
+      </c>
+      <c r="AO6">
+        <v>4</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>2</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
+        <v>2</v>
+      </c>
+      <c r="AT6">
+        <v>2</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>2809</v>
+      </c>
+      <c r="AX6">
+        <v>-1</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>-1</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>-1</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
         <v>0</v>
       </c>
     </row>
@@ -1628,7 +2330,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1647,7 +2349,7 @@
         <v>2976</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1655,7 +2357,31 @@
         <v>2977</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2978</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2979</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2980</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +2391,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1673,130 +2399,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -2052,6 +2778,390 @@
         <v>6</v>
       </c>
       <c r="AP3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4">
+        <v>2978</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <v>55</v>
+      </c>
+      <c r="J4">
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>68</v>
+      </c>
+      <c r="L4">
+        <v>91</v>
+      </c>
+      <c r="M4">
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <v>51</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>63</v>
+      </c>
+      <c r="R4">
+        <v>88</v>
+      </c>
+      <c r="S4">
+        <v>90</v>
+      </c>
+      <c r="T4">
+        <v>43</v>
+      </c>
+      <c r="U4">
+        <v>32</v>
+      </c>
+      <c r="V4">
+        <v>62</v>
+      </c>
+      <c r="W4">
+        <v>72</v>
+      </c>
+      <c r="X4">
+        <v>75</v>
+      </c>
+      <c r="Y4">
+        <v>68</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>100</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>6</v>
+      </c>
+      <c r="AM4">
+        <v>6</v>
+      </c>
+      <c r="AN4">
+        <v>6</v>
+      </c>
+      <c r="AO4">
+        <v>6</v>
+      </c>
+      <c r="AP4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5">
+        <v>2979</v>
+      </c>
+      <c r="B5">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>74</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>58</v>
+      </c>
+      <c r="J5">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>58</v>
+      </c>
+      <c r="N5">
+        <v>74</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>32</v>
+      </c>
+      <c r="R5">
+        <v>74</v>
+      </c>
+      <c r="S5">
+        <v>85</v>
+      </c>
+      <c r="T5">
+        <v>58</v>
+      </c>
+      <c r="U5">
+        <v>50</v>
+      </c>
+      <c r="V5">
+        <v>74</v>
+      </c>
+      <c r="W5">
+        <v>49</v>
+      </c>
+      <c r="X5">
+        <v>51</v>
+      </c>
+      <c r="Y5">
+        <v>32</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>100</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>6</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <v>6</v>
+      </c>
+      <c r="AO5">
+        <v>6</v>
+      </c>
+      <c r="AP5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6">
+        <v>2980</v>
+      </c>
+      <c r="B6">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>76</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>43</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>52</v>
+      </c>
+      <c r="N6">
+        <v>57</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>45</v>
+      </c>
+      <c r="R6">
+        <v>56</v>
+      </c>
+      <c r="S6">
+        <v>83</v>
+      </c>
+      <c r="T6">
+        <v>55</v>
+      </c>
+      <c r="U6">
+        <v>64</v>
+      </c>
+      <c r="V6">
+        <v>28</v>
+      </c>
+      <c r="W6">
+        <v>36</v>
+      </c>
+      <c r="X6">
+        <v>86</v>
+      </c>
+      <c r="Y6">
+        <v>67</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>100</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>6</v>
+      </c>
+      <c r="AM6">
+        <v>6</v>
+      </c>
+      <c r="AN6">
+        <v>6</v>
+      </c>
+      <c r="AO6">
+        <v>6</v>
+      </c>
+      <c r="AP6">
         <v>6</v>
       </c>
     </row>
@@ -2062,7 +3172,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC3"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2073,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2088,100 +3198,100 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>49</v>
@@ -2208,109 +3318,109 @@
         <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:81">
@@ -2327,10 +3437,10 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2405,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="AF2">
         <v>-1</v>
@@ -2569,10 +3679,10 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2646,8 +3756,8 @@
       <c r="AD3">
         <v>0</v>
       </c>
-      <c r="AE3" s="2">
-        <v>0</v>
+      <c r="AE3" t="s">
+        <v>208</v>
       </c>
       <c r="AF3">
         <v>-1</v>
@@ -2794,6 +3904,732 @@
         <v>0</v>
       </c>
       <c r="CC3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81">
+      <c r="A4">
+        <v>2667</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>2978</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>45125</v>
+      </c>
+      <c r="AB4">
+        <v>67</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF4">
+        <v>-1</v>
+      </c>
+      <c r="AG4">
+        <v>-1</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>200</v>
+      </c>
+      <c r="AW4">
+        <v>3</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81">
+      <c r="A5">
+        <v>2668</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2979</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>43481</v>
+      </c>
+      <c r="AB5">
+        <v>205</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF5">
+        <v>-1</v>
+      </c>
+      <c r="AG5">
+        <v>-1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>200</v>
+      </c>
+      <c r="AW5">
+        <v>6</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81">
+      <c r="A6">
+        <v>2669</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>2980</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>44097</v>
+      </c>
+      <c r="AB6">
+        <v>23</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>-1</v>
+      </c>
+      <c r="AG6">
+        <v>-1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>200</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2804,7 +4640,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2815,28 +4651,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -2847,25 +4683,25 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -2879,31 +4715,127 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/wrestleverse_workers.xlsx
+++ b/wrestleverse_workers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="215">
   <si>
     <t>UID</t>
   </si>
@@ -224,118 +224,72 @@
     <t>CareerGoal</t>
   </si>
   <si>
-    <t>Mono Moto</t>
-  </si>
-  <si>
-    <t>Monno Mototo</t>
-  </si>
-  <si>
-    <t>The Joker</t>
-  </si>
-  <si>
-    <t>Steve Bobo</t>
-  </si>
-  <si>
-    <t>Jelly Rolls</t>
-  </si>
-  <si>
-    <t>Mono</t>
-  </si>
-  <si>
-    <t>Monno</t>
-  </si>
-  <si>
-    <t>The</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Jelly</t>
+    <t>Dixie Rose</t>
+  </si>
+  <si>
+    <t>Bob Anderson</t>
+  </si>
+  <si>
+    <t>bob test</t>
+  </si>
+  <si>
+    <t>Dixie</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>bob</t>
   </si>
   <si>
     <t>1666-01-01</t>
   </si>
   <si>
-    <t>monomoto.jpg</t>
-  </si>
-  <si>
-    <t>monnomototo.jpg</t>
-  </si>
-  <si>
-    <t>thejoker.jpg</t>
-  </si>
-  <si>
-    <t>stevebobo.jpg</t>
-  </si>
-  <si>
-    <t>jellyrolls.jpg</t>
-  </si>
-  <si>
-    <t>Cultural Fusion Warrior</t>
-  </si>
-  <si>
-    <t>Luchador referee</t>
-  </si>
-  <si>
-    <t>Anarchist Clown</t>
-  </si>
-  <si>
-    <t>"The Patriot"</t>
-  </si>
-  <si>
-    <t>"The Sweetheart Giant"</t>
-  </si>
-  <si>
-    <t>Japanese Patriarch</t>
-  </si>
-  <si>
-    <t>The Lucha Referee</t>
-  </si>
-  <si>
-    <t>Psychotic prankster</t>
-  </si>
-  <si>
-    <t>"The Bully"</t>
-  </si>
-  <si>
-    <t>"The Gourmet Grappler"</t>
+    <t>dixierose.jpg</t>
+  </si>
+  <si>
+    <t>bobanderson.jpg</t>
+  </si>
+  <si>
+    <t>bobtest.jpg</t>
+  </si>
+  <si>
+    <t>Southern Rose</t>
+  </si>
+  <si>
+    <t>"Captain America"</t>
+  </si>
+  <si>
+    <t>International Sensation.</t>
+  </si>
+  <si>
+    <t>Southern Belle Gangster</t>
+  </si>
+  <si>
+    <t>"The American Traitor"</t>
+  </si>
+  <si>
+    <t>International Outlaw</t>
   </si>
   <si>
     <t>Bio</t>
   </si>
   <si>
-    <t>Mono Moto, also known as the "Heavyweight Guru," is a larger-than-life professional wrestler and manager who has taken the wrestling world by storm. Born and raised in India, Mono Moto has always had a passion for wrestling, starting his career as a manager working behind the scenes before stepping into the ring himself.
-Standing out amongst his peers with his unique combination of size, strength, and agility, Mono Moto quickly rose to fame in the wrestling world, gaining a massive following both in his native India and in Mexico, where he has become a beloved figure in the wrestling community.
-Known for his charismatic personality and larger-than-life presence, Mono Moto has a knack for captivating audiences with his high-flying moves and dynamic in-ring performances. His wrestling style, best described as Interpret, is a perfect reflection of his diverse background and skill set, incorporating elements of traditional Indian wrestling, Mexican lucha libre, and Japanese puroresu.
-Fluent in multiple languages, including Japanese, Mono Moto has found success not only as a wrestler but also as a manager, guiding and mentoring up-and-coming talent in the industry. With an unmatched dedication to his craft and a passion for entertaining fans worldwide, Mono Moto continues to leave a lasting impact on the wrestling world, solidifying his status as a true legend of the squared circle.</t>
-  </si>
-  <si>
-    <t>Monno Mototo, hailing from Mexico, is a professional wrestler like no other. Despite his massive size and unique appearance, he has captivated audiences across India with his impressive skills in the ring.
-As a referee in the wrestling scene in India, Monno Mototo brings a sense of diversity to the sport, speaking both Hindi and Spanish fluently. His ability to connect with the fans in their own languages has endeared him to the Indian wrestling community, earning him a loyal following.
-Monno Mototo's wrestling style is truly one-of-a-kind, as he incorporates elements of various styles into his matches. His ability to adapt and innovate in the ring has made him a force to be reckoned with, despite his imposing figure.
-While Monno Mototo may not be a household name in the wrestling world outside of Mexico and India, his impact on the sport in these countries is undeniable. With his unique blend of charisma, skill, and larger-than-life personality, Monno Mototo continues to leave a lasting impression on fans everywhere.</t>
-  </si>
-  <si>
-    <t>The Joker, born and raised in the seedy underbelly of Gotham City, is a professional wrestler like no other. With his signature green hair and eerie grin, he strikes fear into the hearts of his opponents and fans alike. 
-Known for his unpredictable and chaotic in-ring style, The Joker incorporates elements of acrobatics, brawling, and psychological warfare into his matches. He is a master of mind games, often luring his adversaries into traps with his twisted sense of humor and cunning tactics. 
-Despite his villainous persona, The Joker is a skilled athlete and tactician, constantly keeping his opponents on their toes with his unorthodox and unpredictable moves. His performances are like a twisted circus act, with death-defying stunts and jaw-dropping maneuvers that leave audiences in awe. 
-Outside of the ring, The Joker is a mysterious and enigmatic figure, rarely revealing his true intentions or motives. Some say he is driven by a deep-seated desire to prove himself as the ultimate showman, while others believe he is simply a madman seeking chaos and destruction. 
-Regardless of his motivations, one thing is certain – The Joker is a force to be reckoned with in the world of professional wrestling. With his larger-than-life personality and electrifying performances, he continues to captivate audiences and strike fear into the hearts of his rivals. In the ring, he is an enigma. At his core, he is a true master of manipulation and deception. Love him or hate him, The Joker is here to stay, and the world of professional wrestling will never be the same.</t>
-  </si>
-  <si>
-    <t>Steve Bobo is an American professional wrestler known for his unique and versatile wrestling style. Born and raised in the heart of wrestling country, Steve fell in love with the sport at a young age and knew he wanted to make a name for himself in the industry.
-Steve's wrestling style is best described as interpretive, as he is able to adapt to any situation in the ring and come up with innovative moves and strategies on the fly. His agility, strength, and quick thinking have earned him a reputation as one of the most unpredictable and exciting wrestlers to watch.
-Despite facing many challenges and setbacks in his career, Steve has never wavered in his dedication to the sport. He has trained tirelessly, honing his skills and perfecting his craft in order to become the best wrestler he can be.
-In the ring, Steve is a force to be reckoned with. His signature moves and fearless attitude have earned him a legion of loyal fans who eagerly anticipate his every match. Whether he is facing off against a fierce opponent or teaming up with a partner in a tag team match, Steve always brings his A-game and leaves it all on the mat.
-Off the mat, Steve is known for his humility and passion for giving back to the wrestling community. He frequently volunteers at local wrestling schools, sharing his knowledge and expertise with aspiring wrestlers in the hopes of inspiring the next generation of talent.
-With his unmatched skills, dedication, and passion for the sport, Steve Bobo is sure to leave a lasting legacy in the world of professional wrestling.</t>
-  </si>
-  <si>
-    <t>Jelly Rolls, a larger-than-life professional wrestler hailing from the heart of America, is known for his immense size and imposing presence in the ring. Despite his heavy build, Jelly Rolls possesses surprising agility and strength, making him a formidable force to be reckoned with.
-Born and raised in a small town in the Midwest, Jelly Rolls discovered his passion for wrestling at a young age. His signature wrestling style, which he fondly refers to as "Interpret," combines elements of traditional wrestling techniques with his own unique flair and creativity.
-One of Jelly Rolls' most impressive traits is his ability to speak fluent Spanish, a skill he developed over the years through his interactions with fans from all over the world. His bilingualism has helped him connect with a broader audience and has earned him a loyal following in both English and Spanish-speaking wrestling communities.
-Throughout his career, Jelly Rolls has faced off against some of the biggest names in the industry, always giving his all and leaving everything in the ring. With his larger-than-life persona and undeniable charisma, Jelly Rolls continues to captivate audiences wherever he goes, cementing his status as a true wrestling legend.</t>
+    <t>Dixie Rose, the fiery and flamboyant manager of the Richmond Ironclads team, is a force to be reckoned with in the world of professional wrestling. With her bright red pixie cut and bold personality, she commands attention wherever she goes.
+Known for her no-nonsense attitude and willingness to do whatever it takes to lead her team to victory, Dixie Rose isn't afraid to get her hands dirty in the ring. Whether she's delivering a scathing tirade on the microphone or getting physically involved in a match, she always leaves a lasting impression on her opponents and fans alike.
+Dixie Rose's wrestling style can best be described as Interpret, as she is able to adapt to any situation and use her quick wit and cunning tactics to outsmart her opponents. With her fierce determination and unwavering passion for the sport, Dixie Rose continues to make a name for herself as one of the most formidable managers in the industry.</t>
+  </si>
+  <si>
+    <t>Bob Anderson, also known as "The American Legend," is a male professional wrestler who has captivated audiences around the world with his unique blend of charisma and athleticism. Born and raised in the heart of America, Bob quickly rose to fame in the wrestling world thanks to his larger-than-life persona and unparalleled in-ring skills.
+Bob's wrestling style is best described as Interpret, as he has a knack for reading his opponents and adapting his moveset on the fly to outmaneuver them in the ring. Fans have come to expect the unexpected when watching Bob Anderson perform, as he is always willing to push the boundaries and try new techniques to keep them on the edge of their seats.
+Throughout his career, Bob has amassed a loyal following of fans who have dubbed themselves "Anderson's Army," a testament to his enduring popularity and ability to connect with audiences on a personal level. Whether he is facing off against a rival in a high-stakes championship match or putting on a show-stealing performance in a tag team bout, Bob always brings his A-game and leaves everything in the ring.
+Outside of the ring, Bob is known for his philanthropic efforts and dedication to giving back to his community. He regularly volunteers at local schools and charities, using his platform as a wrestler to inspire others to reach for their dreams and never give up.
+In a career filled with unforgettable moments and groundbreaking matches, Bob Anderson has solidified his place as one of the greatest wrestlers of his generation. With his unparalleled talent, unwavering dedication, and larger-than-life persona, he has earned his spot as a true American legend in the world of professional wrestling.</t>
+  </si>
+  <si>
+    <t>Bob Test is a male professional wrestler who has captured the hearts of fans in Mexico and India with his unique fighting style and charismatic personality. Born and raised in Mexico City, Bob discovered his passion for wrestling at a young age and quickly rose through the ranks to become a top contender in the ring.
+Known for his high-flying maneuvers and innovative moves, Bob Test has earned a reputation as one of the most exciting and unpredictable wrestlers in the industry. His ability to interpret the emotions and feelings of the audience through his wrestling style has endeared him to fans around the world, but he remains relatively unknown outside of Mexico and India.
+Despite his lack of international recognition, Bob Test continues to thrill audiences with his electrifying performances and relentless determination to succeed. With a never-say-die attitude and a fearless spirit, he continues to showcase his skills in the ring and prove that he is a force to be reckoned with in the world of professional wrestling.</t>
   </si>
   <si>
     <t>WorkerUID</t>
@@ -683,43 +637,40 @@
     <t>image_generated</t>
   </si>
   <si>
-    <t>A fat Indian Wrestler and Manager who is very Popular in India and Mexico, and speaks Japanese fluently</t>
-  </si>
-  <si>
-    <t>A Mexican man who referees in india. He is extremely obese and speaks Hindi and Spanish fluently, but nothing else. He is extremely popular in Mexico and India, and not known anywhere else at all.</t>
-  </si>
-  <si>
-    <t>Batman's nemesis, the Joker</t>
-  </si>
-  <si>
-    <t>An american wrestler</t>
-  </si>
-  <si>
-    <t>A very large obese American Wrestler who also speaks Fluent Spanish</t>
+    <t>Manager of the Richmond Ironclads team.  A flamboyant and fiery manager who isn’t afraid to get involved in matches. She has a bright red pixie cut.</t>
+  </si>
+  <si>
+    <t>A man who is wildly popular in America.</t>
+  </si>
+  <si>
+    <t>A guy who is wildly popular in just Mexico and India and unknown in other regions.</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
+    <t>Global Sports Network</t>
+  </si>
+  <si>
     <t>Random</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Interpret</t>
   </si>
   <si>
-    <t>Mono Moto is a towering Pacific Islander with a ripped physique, adorned with a large belly and prominent muscles, who stands out with his unique blend of Indian heritage and Japanese fluency.</t>
-  </si>
-  <si>
-    <t>Monno Mototo is a towering, obese Mexican man with a unique blend of Hindi and Spanish fluency, making him a standout figure in the wrestling world.</t>
-  </si>
-  <si>
-    <t>The Joker is a tall, muscular figure with a menacing grin, standing out with his pale skin and green hair, embodying the essence of chaos.</t>
-  </si>
-  <si>
-    <t>Steve Bobo is a tall, muscular Caucasian male wrestler with a chiseled physique and a prominent jawline.</t>
-  </si>
-  <si>
-    <t>Jelly Rolls is a towering, rotund Hispanic wrestler with a larger-than-life presence and the ability to seamlessly switch between English and Spanish.</t>
+    <t>Dixie Rose is a petite and slender Caucasian woman with a bright red pixie cut, standing at 5'4" tall, she exudes a fiery and flamboyant presence in the ring.</t>
+  </si>
+  <si>
+    <t>Bob Anderson is a tall and muscular Caucasian male wrestler with a ruggedly handsome face and piercing blue eyes.</t>
+  </si>
+  <si>
+    <t>Bob Test is a towering figure with a muscular build and a distinctive long black mullet hairstyle that cascades down his back.</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1295,7 +1246,7 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2">
-        <v>2976</v>
+        <v>11247</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1310,40 +1261,40 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>32724</v>
+        <v>32306</v>
       </c>
       <c r="M2" s="2">
-        <v>40355</v>
+        <v>39269</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <v>42</v>
       </c>
       <c r="Q2">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="R2">
         <v>150</v>
@@ -1352,13 +1303,13 @@
         <v>350</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1379,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1439,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>11602</v>
       </c>
       <c r="AX2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -1484,13 +1435,13 @@
         <v>-1</v>
       </c>
       <c r="BL2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="BM2">
         <v>1</v>
       </c>
       <c r="BN2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="BO2">
         <v>1</v>
@@ -1501,7 +1452,7 @@
     </row>
     <row r="3" spans="1:68">
       <c r="A3">
-        <v>2977</v>
+        <v>11248</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1516,7 +1467,7 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1534,22 +1485,22 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>32513</v>
+        <v>32530</v>
       </c>
       <c r="M3" s="2">
-        <v>43291</v>
+        <v>39464</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q3">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="R3">
         <v>150</v>
@@ -1558,13 +1509,13 @@
         <v>350</v>
       </c>
       <c r="T3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -1645,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>11603</v>
       </c>
       <c r="AX3">
         <v>-1</v>
@@ -1654,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -1666,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BE3">
         <v>0</v>
@@ -1690,13 +1641,13 @@
         <v>-1</v>
       </c>
       <c r="BL3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="BM3">
         <v>1</v>
       </c>
       <c r="BN3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BO3">
         <v>1</v>
@@ -1707,7 +1658,7 @@
     </row>
     <row r="4" spans="1:68">
       <c r="A4">
-        <v>2978</v>
+        <v>11249</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1722,7 +1673,7 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1740,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>31754</v>
+        <v>32548</v>
       </c>
       <c r="M4" s="2">
-        <v>37508</v>
+        <v>43623</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4">
         <v>20</v>
       </c>
       <c r="Q4">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="R4">
         <v>150</v>
@@ -1764,7 +1715,7 @@
         <v>350</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1851,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>11604</v>
       </c>
       <c r="AX4">
         <v>-1</v>
@@ -1896,430 +1847,18 @@
         <v>-1</v>
       </c>
       <c r="BL4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BM4">
         <v>1</v>
       </c>
       <c r="BN4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="BO4">
         <v>1</v>
       </c>
       <c r="BP4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:68">
-      <c r="A5">
-        <v>2979</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>34650</v>
-      </c>
-      <c r="M5" s="2">
-        <v>42907</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>26</v>
-      </c>
-      <c r="Q5">
-        <v>282</v>
-      </c>
-      <c r="R5">
-        <v>150</v>
-      </c>
-      <c r="S5">
-        <v>350</v>
-      </c>
-      <c r="T5" t="s">
-        <v>82</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-1</v>
-      </c>
-      <c r="AH5">
-        <v>-1</v>
-      </c>
-      <c r="AI5">
-        <v>-1</v>
-      </c>
-      <c r="AJ5">
-        <v>-1</v>
-      </c>
-      <c r="AK5">
-        <v>-1</v>
-      </c>
-      <c r="AL5">
-        <v>-1</v>
-      </c>
-      <c r="AM5">
-        <v>-1</v>
-      </c>
-      <c r="AN5">
-        <v>-1</v>
-      </c>
-      <c r="AO5">
-        <v>4</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>2</v>
-      </c>
-      <c r="AR5">
-        <v>2</v>
-      </c>
-      <c r="AS5">
-        <v>2</v>
-      </c>
-      <c r="AT5">
-        <v>2</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>-1</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>-1</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:68">
-      <c r="A6">
-        <v>2980</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>32799</v>
-      </c>
-      <c r="M6" s="2">
-        <v>45157</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <v>40</v>
-      </c>
-      <c r="Q6">
-        <v>154</v>
-      </c>
-      <c r="R6">
-        <v>150</v>
-      </c>
-      <c r="S6">
-        <v>350</v>
-      </c>
-      <c r="T6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>4</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>-1</v>
-      </c>
-      <c r="AH6">
-        <v>-1</v>
-      </c>
-      <c r="AI6">
-        <v>-1</v>
-      </c>
-      <c r="AJ6">
-        <v>-1</v>
-      </c>
-      <c r="AK6">
-        <v>-1</v>
-      </c>
-      <c r="AL6">
-        <v>-1</v>
-      </c>
-      <c r="AM6">
-        <v>-1</v>
-      </c>
-      <c r="AN6">
-        <v>-1</v>
-      </c>
-      <c r="AO6">
-        <v>4</v>
-      </c>
-      <c r="AP6">
-        <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>2</v>
-      </c>
-      <c r="AR6">
-        <v>2</v>
-      </c>
-      <c r="AS6">
-        <v>2</v>
-      </c>
-      <c r="AT6">
-        <v>2</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>2809</v>
-      </c>
-      <c r="AX6">
-        <v>-1</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>-1</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>-1</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM6">
-        <v>1</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +1869,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2341,47 +1880,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2976</v>
+        <v>11247</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2977</v>
+        <v>11248</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2978</v>
+        <v>11249</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2979</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2980</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP6"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2399,174 +1922,174 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2">
-        <v>2976</v>
+        <v>11247</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M2">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2575,31 +2098,31 @@
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R2">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="S2">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="T2">
+        <v>75</v>
+      </c>
+      <c r="U2">
         <v>59</v>
       </c>
-      <c r="U2">
-        <v>45</v>
-      </c>
       <c r="V2">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="W2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="X2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Y2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2655,46 +2178,46 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3">
-        <v>2977</v>
+        <v>11248</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2703,31 +2226,31 @@
         <v>100</v>
       </c>
       <c r="Q3">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="R3">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="S3">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="T3">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="U3">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="V3">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="W3">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="X3">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="Y3">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2783,46 +2306,46 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4">
-        <v>2978</v>
+        <v>11249</v>
       </c>
       <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>55</v>
+      </c>
+      <c r="I4">
         <v>42</v>
       </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>59</v>
-      </c>
-      <c r="G4">
-        <v>86</v>
-      </c>
-      <c r="H4">
-        <v>31</v>
-      </c>
-      <c r="I4">
-        <v>55</v>
-      </c>
       <c r="J4">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L4">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M4">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N4">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2831,31 +2354,31 @@
         <v>100</v>
       </c>
       <c r="Q4">
+        <v>72</v>
+      </c>
+      <c r="R4">
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <v>45</v>
+      </c>
+      <c r="T4">
+        <v>23</v>
+      </c>
+      <c r="U4">
+        <v>58</v>
+      </c>
+      <c r="V4">
         <v>63</v>
       </c>
-      <c r="R4">
-        <v>88</v>
-      </c>
-      <c r="S4">
-        <v>90</v>
-      </c>
-      <c r="T4">
-        <v>43</v>
-      </c>
-      <c r="U4">
-        <v>32</v>
-      </c>
-      <c r="V4">
-        <v>62</v>
-      </c>
       <c r="W4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="X4">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Y4">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2906,262 +2429,6 @@
         <v>6</v>
       </c>
       <c r="AP4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="A5">
-        <v>2979</v>
-      </c>
-      <c r="B5">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>82</v>
-      </c>
-      <c r="F5">
-        <v>44</v>
-      </c>
-      <c r="G5">
-        <v>74</v>
-      </c>
-      <c r="H5">
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <v>58</v>
-      </c>
-      <c r="J5">
-        <v>56</v>
-      </c>
-      <c r="K5">
-        <v>48</v>
-      </c>
-      <c r="L5">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>58</v>
-      </c>
-      <c r="N5">
-        <v>74</v>
-      </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-      <c r="P5">
-        <v>100</v>
-      </c>
-      <c r="Q5">
-        <v>32</v>
-      </c>
-      <c r="R5">
-        <v>74</v>
-      </c>
-      <c r="S5">
-        <v>85</v>
-      </c>
-      <c r="T5">
-        <v>58</v>
-      </c>
-      <c r="U5">
-        <v>50</v>
-      </c>
-      <c r="V5">
-        <v>74</v>
-      </c>
-      <c r="W5">
-        <v>49</v>
-      </c>
-      <c r="X5">
-        <v>51</v>
-      </c>
-      <c r="Y5">
-        <v>32</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>100</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>6</v>
-      </c>
-      <c r="AM5">
-        <v>6</v>
-      </c>
-      <c r="AN5">
-        <v>6</v>
-      </c>
-      <c r="AO5">
-        <v>6</v>
-      </c>
-      <c r="AP5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6">
-        <v>2980</v>
-      </c>
-      <c r="B6">
-        <v>78</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>59</v>
-      </c>
-      <c r="F6">
-        <v>76</v>
-      </c>
-      <c r="G6">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>57</v>
-      </c>
-      <c r="J6">
-        <v>57</v>
-      </c>
-      <c r="K6">
-        <v>43</v>
-      </c>
-      <c r="L6">
-        <v>60</v>
-      </c>
-      <c r="M6">
-        <v>52</v>
-      </c>
-      <c r="N6">
-        <v>57</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>45</v>
-      </c>
-      <c r="R6">
-        <v>56</v>
-      </c>
-      <c r="S6">
-        <v>83</v>
-      </c>
-      <c r="T6">
-        <v>55</v>
-      </c>
-      <c r="U6">
-        <v>64</v>
-      </c>
-      <c r="V6">
-        <v>28</v>
-      </c>
-      <c r="W6">
-        <v>36</v>
-      </c>
-      <c r="X6">
-        <v>86</v>
-      </c>
-      <c r="Y6">
-        <v>67</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>100</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>6</v>
-      </c>
-      <c r="AM6">
-        <v>6</v>
-      </c>
-      <c r="AN6">
-        <v>6</v>
-      </c>
-      <c r="AO6">
-        <v>6</v>
-      </c>
-      <c r="AP6">
         <v>6</v>
       </c>
     </row>
@@ -3172,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC6"/>
+  <dimension ref="A1:CC4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3183,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3198,100 +2465,100 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>49</v>
@@ -3318,132 +2585,132 @@
         <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:81">
       <c r="A2">
-        <v>2665</v>
+        <v>10512</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>511</v>
       </c>
       <c r="C2">
-        <v>2976</v>
+        <v>11247</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -3461,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -3500,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="Z2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="2">
-        <v>44806</v>
+        <v>44130</v>
       </c>
       <c r="AB2">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -3515,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AF2">
         <v>-1</v>
@@ -3530,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -3569,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="AX2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -3667,28 +2934,28 @@
     </row>
     <row r="3" spans="1:81">
       <c r="A3">
-        <v>2666</v>
+        <v>10513</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>458</v>
       </c>
       <c r="C3">
-        <v>2977</v>
+        <v>11248</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3745,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2">
-        <v>45271</v>
+        <v>43607</v>
       </c>
       <c r="AB3">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -3757,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AF3">
         <v>-1</v>
@@ -3772,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -3808,10 +3075,10 @@
         <v>200</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -3909,28 +3176,28 @@
     </row>
     <row r="4" spans="1:81">
       <c r="A4">
-        <v>2667</v>
+        <v>10514</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>342</v>
       </c>
       <c r="C4">
-        <v>2978</v>
+        <v>11249</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3945,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -3984,13 +3251,13 @@
         <v>0</v>
       </c>
       <c r="Z4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <v>45125</v>
+        <v>45056</v>
       </c>
       <c r="AB4">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -3998,8 +3265,8 @@
       <c r="AD4">
         <v>0</v>
       </c>
-      <c r="AE4" t="s">
-        <v>208</v>
+      <c r="AE4" s="2">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>-1</v>
@@ -4014,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -4050,10 +3317,10 @@
         <v>200</v>
       </c>
       <c r="AW4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -4146,490 +3413,6 @@
         <v>0</v>
       </c>
       <c r="CC4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:81">
-      <c r="A5">
-        <v>2668</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2979</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>43481</v>
-      </c>
-      <c r="AB5">
-        <v>205</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF5">
-        <v>-1</v>
-      </c>
-      <c r="AG5">
-        <v>-1</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>200</v>
-      </c>
-      <c r="AW5">
-        <v>6</v>
-      </c>
-      <c r="AX5">
-        <v>3</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81">
-      <c r="A6">
-        <v>2669</v>
-      </c>
-      <c r="B6">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>2980</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>44097</v>
-      </c>
-      <c r="AB6">
-        <v>23</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>-1</v>
-      </c>
-      <c r="AG6">
-        <v>-1</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>4</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>200</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>4</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4640,7 +3423,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4651,28 +3434,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -4683,31 +3466,31 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4715,31 +3498,31 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4747,95 +3530,31 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
